--- a/YouTube Channel KOMPASTV/Results of Data Exports from DataFrame/Export Comments Data from 4th Video Debate.xlsx
+++ b/YouTube Channel KOMPASTV/Results of Data Exports from DataFrame/Export Comments Data from 4th Video Debate.xlsx
@@ -61,12 +61,12 @@
     <t>UgxXBns_Vco13Tb9kRJ4AaABAg</t>
   </si>
   <si>
+    <t>Ugzv8oZwAHvc29avDYZ4AaABAg</t>
+  </si>
+  <si>
     <t>UgzYD0sGCrRAM6KkLpd4AaABAg</t>
   </si>
   <si>
-    <t>Ugzv8oZwAHvc29avDYZ4AaABAg</t>
-  </si>
-  <si>
     <t>UgwKQnFYqsDUceLPiIt4AaABAg</t>
   </si>
   <si>
@@ -82,469 +82,469 @@
     <t>UgyNtBuk2VCnmv72GKh4AaABAg</t>
   </si>
   <si>
+    <t>UgwWp0dwKMF4xrkKgwx4AaABAg</t>
+  </si>
+  <si>
     <t>UgxaI011eHlw2gTB8mZ4AaABAg</t>
   </si>
   <si>
-    <t>UgwWp0dwKMF4xrkKgwx4AaABAg</t>
-  </si>
-  <si>
     <t>UgwnJh_y8xxCPrWDwxp4AaABAg</t>
   </si>
   <si>
+    <t>UgzwSZpotT26Bo3rvlR4AaABAg</t>
+  </si>
+  <si>
     <t>UgxYuOlErft2sYpd1fx4AaABAg</t>
   </si>
   <si>
-    <t>UgzwSZpotT26Bo3rvlR4AaABAg</t>
+    <t>Ugy1gKkyq_qlH8fcdV54AaABAg</t>
+  </si>
+  <si>
+    <t>UgwkDcwLxRghSNkKul54AaABAg</t>
   </si>
   <si>
     <t>UgymccLSD7ENJ0wKqHx4AaABAg</t>
   </si>
   <si>
-    <t>UgwkDcwLxRghSNkKul54AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy1gKkyq_qlH8fcdV54AaABAg</t>
-  </si>
-  <si>
     <t>Ugz_XBxupzlKm7pX-xR4AaABAg</t>
   </si>
   <si>
+    <t>UgzWM5WKQe-o0cG7AIh4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx-Dm5fC51t-Gvkx1N4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw_AmqjfmKsi_v-YiZ4AaABAg</t>
+  </si>
+  <si>
     <t>UgxEH4K5-CWkK9nuytV4AaABAg</t>
   </si>
   <si>
-    <t>Ugw_AmqjfmKsi_v-YiZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzWM5WKQe-o0cG7AIh4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx-Dm5fC51t-Gvkx1N4AaABAg</t>
+    <t>UgxqIwqXTzd6qr4cKD14AaABAg</t>
   </si>
   <si>
     <t>UgyjFh23TjnHCzGPFRh4AaABAg</t>
   </si>
   <si>
+    <t>UgwbfAhzIOVVweRYabV4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx5g21VwLL1gvoLS_J4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyLnlMynExLqhZVnqx4AaABAg</t>
+  </si>
+  <si>
     <t>Ugyog3c5csR3-kKgUDJ4AaABAg</t>
   </si>
   <si>
-    <t>UgxECA0Tlh6f8CaWW5F4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyLnlMynExLqhZVnqx4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx5g21VwLL1gvoLS_J4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwbfAhzIOVVweRYabV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxqIwqXTzd6qr4cKD14AaABAg</t>
+    <t>Ugz6ou2ZkUfmJ5D4KBV4AaABAg</t>
   </si>
   <si>
     <t>Ugzi7suoaMTVxbYI3P54AaABAg</t>
   </si>
   <si>
+    <t>Ugwv2qtSt_1uas_UnGl4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxPBhyft6PaOVAzgth4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyHQ4l5f8tHbUVsrVZ4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugzg0nZIimoCv9jW7aZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyUnr6qdHK0nGCa9MZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyF-a7OEsOPddP6AYR4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx8xBXH0idF8TmpnX94AaABAg</t>
+  </si>
+  <si>
+    <t>UgwhGT7jPSmpoTZLdjB4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw3bET09nTDNjMyCyl4AaABAg</t>
+  </si>
+  <si>
     <t>UgwSlXELfNkxwGyiuG14AaABAg</t>
   </si>
   <si>
+    <t>Ugy9Fg3A9uwsDv2v7Bt4AaABAg</t>
+  </si>
+  <si>
+    <t>UgygSBy0Aw9rSdRpFeh4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzuGxxUnh9ah2HI_TF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugz-ay5F9vg5FbgfKbt4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyFxReNtbRKnRuRoSN4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwQ7ZoEAZxAeZF0OSx4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwLcyXmmznmB5f8CkF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugz0FZN6NmJh72wq8Tp4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwKlawbKpbwc0K-PvR4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwZjJrKg4g8daM_tVx4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw7vKxg-3rCIy3phZl4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwY451bTN-6PqySR2h4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxTqKBcsyLwaSV1uEN4AaABAg</t>
+  </si>
+  <si>
+    <t>UgySWTO2TOY5woTpUDJ4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxh8KSXfgvc8ahkPhF4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzXL1cbL4EHd3kwrel4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwtV3Ht6LJaNMLJpcJ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwDbUWjw6-vMlcxsIp4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxCYa2tjf3OWiM_cbN4AaABAg</t>
+  </si>
+  <si>
     <t>UgwtfAi_ktxn7uLI06F4AaABAg</t>
   </si>
   <si>
-    <t>UgwtV3Ht6LJaNMLJpcJ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyHQ4l5f8tHbUVsrVZ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx8xBXH0idF8TmpnX94AaABAg</t>
-  </si>
-  <si>
-    <t>UgwhGT7jPSmpoTZLdjB4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw3bET09nTDNjMyCyl4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwKlawbKpbwc0K-PvR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxTqKBcsyLwaSV1uEN4AaABAg</t>
-  </si>
-  <si>
-    <t>UgygSBy0Aw9rSdRpFeh4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugzg0nZIimoCv9jW7aZ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugz-ay5F9vg5FbgfKbt4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwZjJrKg4g8daM_tVx4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwLcyXmmznmB5f8CkF4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyFxReNtbRKnRuRoSN4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyF-a7OEsOPddP6AYR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwQ7ZoEAZxAeZF0OSx4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzuGxxUnh9ah2HI_TF4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy9Fg3A9uwsDv2v7Bt4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugz6ou2ZkUfmJ5D4KBV4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugwv2qtSt_1uas_UnGl4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyUnr6qdHK0nGCa9MZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxPBhyft6PaOVAzgth4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwY451bTN-6PqySR2h4AaABAg</t>
-  </si>
-  <si>
-    <t>UgySWTO2TOY5woTpUDJ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxh8KSXfgvc8ahkPhF4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugz0FZN6NmJh72wq8Tp4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw7vKxg-3rCIy3phZl4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwDbUWjw6-vMlcxsIp4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxCYa2tjf3OWiM_cbN4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzXL1cbL4EHd3kwrel4AaABAg</t>
+    <t>UgwKpiuIR5soDIn1Mt94AaABAg</t>
+  </si>
+  <si>
+    <t>Ugy3OzNJX0lUbNTlx754AaABAg</t>
+  </si>
+  <si>
+    <t>UgzNYSq1WHuM6dgYznl4AaABAg</t>
+  </si>
+  <si>
+    <t>UgykxF4rrFuduhdAIbN4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw5qg9mKVnzF6oOHHZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgygnBclOMfCaE4P29p4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyXrp-JDVOBcwKbCiV4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxrdx8L4s1dDGMdFZ14AaABAg</t>
+  </si>
+  <si>
+    <t>UgySAbYo0O61ZcQmx1d4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzCSwvBTzuj2ZNO_yZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwvJmRmAD1-2l8TNwh4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwQoXfX-MpcEbS39hN4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxvWc9iNcSegxn5O-h4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxu3tWCtx0FyO7yHqR4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugz2buz15gn-lsxgpph4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxd3PA3yn8p3K-0SY14AaABAg</t>
+  </si>
+  <si>
+    <t>UgxgZVnnUIUXwzRrdOh4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzpXAno14ji9oOABPR4AaABAg</t>
   </si>
   <si>
     <t>Ugwtw91BnxLLB9b1pIJ4AaABAg</t>
   </si>
   <si>
+    <t>UgzLyAsxOgoENSjru354AaABAg</t>
+  </si>
+  <si>
+    <t>Ugyxd0nOl1hjWkrvzxV4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzomT49LSl5TtBBbcp4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxOqkRlzuMPHSp3RxZ4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugy3jOdZYLbx1IKDIzR4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzEdQYJDAka_yoxkoR4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugzh0FTE4T2cVHrp5at4AaABAg</t>
+  </si>
+  <si>
+    <t>UgweNQddYDjLN2EgOmF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx-XW8pXtD0beItYcp4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw6W7zm0exWLoR2a_94AaABAg</t>
+  </si>
+  <si>
+    <t>UgwX5vMK5JLMtxn8GCJ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxXOqKzpcaIJ5uG7mJ4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugwug_ldMwpawX8ujVR4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxX9k5dTvPJiqVwuI54AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx11bRRmo2HJW3bxk54AaABAg</t>
+  </si>
+  <si>
+    <t>UgyeXCZkzQxHfCF1A2l4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugz3dGK2Hn3dUqVWlYx4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwZ-8p9mcyPuUwa9R14AaABAg</t>
+  </si>
+  <si>
+    <t>UgwkFKfULJFUoJQSc4J4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzYoIqWFaoTK6L_Oy54AaABAg</t>
+  </si>
+  <si>
+    <t>UgzUX5ksWUebH5EPZO54AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxd5U3Dya0Kw-gXTRV4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw4wv6SHky2hMfHQQF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugzm7wsLlZ8Tim70C0R4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwT_bZ8pL5_OiMro2F4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxZdSCEeZNYn7AEby94AaABAg</t>
+  </si>
+  <si>
+    <t>UgxwpEvDTvT-_kp81iB4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyfZE_cbJDbQJgXY1N4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugwrz6tRjykHINpaMix4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugx9DzT15MmhHQd-0gl4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwOOC6oqqmn5tykjJZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgxBHgscG8S1xKN3FGt4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugy0cKIk6b3Hy083EJx4AaABAg</t>
+  </si>
+  <si>
     <t>UgxEHkSyzCdLaywtxKx4AaABAg</t>
   </si>
   <si>
+    <t>Ugy3YEpmjfwLlrDYS294AaABAg</t>
+  </si>
+  <si>
     <t>UgzND-4FSLwhLs470Bp4AaABAg</t>
   </si>
   <si>
+    <t>UgzzJkAIliAJ7DGvaCF4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzlfZVGk3r9zcAQYnt4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwLYVvXlFG2PdOKXvZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyhnRo5GQTi2A-5ikx4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw4q0Oi9cZ7woOQMxl4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugy2v4RPlbLtPZWbUdR4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzDNhjMTzyu1olT2Jd4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugy-BAoXFtXG8563Eb14AaABAg</t>
+  </si>
+  <si>
+    <t>UgzBnfSofVA-Yj5WQgF4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwcTincJcVKoqzuEtp4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyFNfAwJtqmdDLqSJd4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugxh6N_W3imI4nPcjM54AaABAg</t>
+  </si>
+  <si>
+    <t>UgwbgTfQUIaQL1mxcBJ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzBlui6KEfJuGvGFW94AaABAg</t>
+  </si>
+  <si>
+    <t>UgwLgt9bz3RO8tPsZEx4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyEvbednX7c3dZpLCV4AaABAg</t>
+  </si>
+  <si>
+    <t>UgypwcRCEGdaUhJ1S114AaABAg</t>
+  </si>
+  <si>
+    <t>UgxTf3OF-j5Aij1hZRZ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwwVsNc-Cf8XIeWVo54AaABAg</t>
+  </si>
+  <si>
+    <t>UgygacAY-HjR-IwJSqh4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw07EdAyK-9NsPq0IV4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyhusXyALCoZgy3RPx4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyJMuFF6Sh7jMW72yx4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyCjSl54F9XvwGNF-h4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwU1J-ENr5WVYHNZ6p4AaABAg</t>
+  </si>
+  <si>
+    <t>UgygZG8KR4MLzqxOH3V4AaABAg</t>
+  </si>
+  <si>
+    <t>UgwpWpLe_N-eX6yJU6J4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugzjan8OR8HHnlvk7yF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw9qDD-c86aezG8fo54AaABAg</t>
+  </si>
+  <si>
+    <t>UgwOYq-P7tueMjRXIyF4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugzyhkj0QsbMV3EgWZd4AaABAg</t>
+  </si>
+  <si>
+    <t>UgyxAWwYSYQ83aG_2OJ4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzRQDfuNmxLwKjkJOF4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzU9MN346C4OH6rNnl4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw1gVeAVCks2XhjHL94AaABAg</t>
+  </si>
+  <si>
+    <t>UgwTKJ2QY6kGgJ-pNAB4AaABAg</t>
+  </si>
+  <si>
+    <t>UgzW-6_lM1fXdIu9cJh4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugz4NXpxEZJHYDbS3gR4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugw3h7ZDpOyiDjTWd-94AaABAg</t>
+  </si>
+  <si>
+    <t>UgzIYNKhqRD14TuezVV4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugwda072DttCnTWj10d4AaABAg</t>
+  </si>
+  <si>
     <t>Ugwg6hbTZXqBIn23-AR4AaABAg</t>
   </si>
   <si>
-    <t>Ugz2buz15gn-lsxgpph4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugyxd0nOl1hjWkrvzxV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzzJkAIliAJ7DGvaCF4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzlfZVGk3r9zcAQYnt4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzLyAsxOgoENSjru354AaABAg</t>
-  </si>
-  <si>
-    <t>UgwkFKfULJFUoJQSc4J4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzomT49LSl5TtBBbcp4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxOqkRlzuMPHSp3RxZ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy0cKIk6b3Hy083EJx4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzEdQYJDAka_yoxkoR4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugzh0FTE4T2cVHrp5at4AaABAg</t>
-  </si>
-  <si>
-    <t>UgweNQddYDjLN2EgOmF4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx-XW8pXtD0beItYcp4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxBHgscG8S1xKN3FGt4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwOOC6oqqmn5tykjJZ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx9DzT15MmhHQd-0gl4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzpXAno14ji9oOABPR4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy3jOdZYLbx1IKDIzR4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugwrz6tRjykHINpaMix4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwLYVvXlFG2PdOKXvZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwbgTfQUIaQL1mxcBJ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxh6N_W3imI4nPcjM54AaABAg</t>
-  </si>
-  <si>
-    <t>UgyFNfAwJtqmdDLqSJd4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwcTincJcVKoqzuEtp4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwQoXfX-MpcEbS39hN4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzBnfSofVA-Yj5WQgF4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxvWc9iNcSegxn5O-h4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy-BAoXFtXG8563Eb14AaABAg</t>
-  </si>
-  <si>
-    <t>UgwKpiuIR5soDIn1Mt94AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxu3tWCtx0FyO7yHqR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzCSwvBTzuj2ZNO_yZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzDNhjMTzyu1olT2Jd4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy2v4RPlbLtPZWbUdR4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy3OzNJX0lUbNTlx754AaABAg</t>
-  </si>
-  <si>
-    <t>UgwvJmRmAD1-2l8TNwh4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxd3PA3yn8p3K-0SY14AaABAg</t>
-  </si>
-  <si>
-    <t>Ugx11bRRmo2HJW3bxk54AaABAg</t>
-  </si>
-  <si>
-    <t>UgxX9k5dTvPJiqVwuI54AaABAg</t>
-  </si>
-  <si>
-    <t>UgxXOqKzpcaIJ5uG7mJ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwX5vMK5JLMtxn8GCJ4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw4q0Oi9cZ7woOQMxl4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw6W7zm0exWLoR2a_94AaABAg</t>
-  </si>
-  <si>
-    <t>UgyhnRo5GQTi2A-5ikx4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugwug_ldMwpawX8ujVR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyeXCZkzQxHfCF1A2l4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyfZE_cbJDbQJgXY1N4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugy3YEpmjfwLlrDYS294AaABAg</t>
-  </si>
-  <si>
-    <t>UgwU1J-ENr5WVYHNZ6p4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwLgt9bz3RO8tPsZEx4AaABAg</t>
-  </si>
-  <si>
-    <t>UgygZG8KR4MLzqxOH3V4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzRQDfuNmxLwKjkJOF4AaABAg</t>
+    <t>UgwgNUwDA8hjG41Cvr14AaABAg</t>
+  </si>
+  <si>
+    <t>UgwrKvlLKguHD5fpCTN4AaABAg</t>
+  </si>
+  <si>
+    <t>UgySxkbw4W2dOmpV6RR4AaABAg</t>
+  </si>
+  <si>
+    <t>Ugyzw3iNGClwOk5dwQt4AaABAg</t>
   </si>
   <si>
     <t>UgyOKlCsRavS38O02dB4AaABAg</t>
   </si>
   <si>
-    <t>Ugyzw3iNGClwOk5dwQt4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwpWpLe_N-eX6yJU6J4AaABAg</t>
-  </si>
-  <si>
-    <t>UgySxkbw4W2dOmpV6RR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwrKvlLKguHD5fpCTN4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugzjan8OR8HHnlvk7yF4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw9qDD-c86aezG8fo54AaABAg</t>
-  </si>
-  <si>
-    <t>UgwOYq-P7tueMjRXIyF4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugzyhkj0QsbMV3EgWZd4AaABAg</t>
-  </si>
-  <si>
-    <t>UgypwcRCEGdaUhJ1S114AaABAg</t>
-  </si>
-  <si>
-    <t>UgyxAWwYSYQ83aG_2OJ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzU9MN346C4OH6rNnl4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw1gVeAVCks2XhjHL94AaABAg</t>
-  </si>
-  <si>
-    <t>UgwTKJ2QY6kGgJ-pNAB4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzW-6_lM1fXdIu9cJh4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugz4NXpxEZJHYDbS3gR4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwgNUwDA8hjG41Cvr14AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw3h7ZDpOyiDjTWd-94AaABAg</t>
-  </si>
-  <si>
-    <t>UgzIYNKhqRD14TuezVV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyCjSl54F9XvwGNF-h4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyJMuFF6Sh7jMW72yx4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugwda072DttCnTWj10d4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyhusXyALCoZgy3RPx4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxgZVnnUIUXwzRrdOh4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxwpEvDTvT-_kp81iB4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzNYSq1WHuM6dgYznl4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw5qg9mKVnzF6oOHHZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgygnBclOMfCaE4P29p4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyXrp-JDVOBcwKbCiV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgySAbYo0O61ZcQmx1d4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxZdSCEeZNYn7AEby94AaABAg</t>
-  </si>
-  <si>
-    <t>UgwT_bZ8pL5_OiMro2F4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxrdx8L4s1dDGMdFZ14AaABAg</t>
-  </si>
-  <si>
-    <t>UgykxF4rrFuduhdAIbN4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugzm7wsLlZ8Tim70C0R4AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw4wv6SHky2hMfHQQF4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwZ-8p9mcyPuUwa9R14AaABAg</t>
-  </si>
-  <si>
-    <t>Ugxd5U3Dya0Kw-gXTRV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgyEvbednX7c3dZpLCV4AaABAg</t>
-  </si>
-  <si>
-    <t>UgxTf3OF-j5Aij1hZRZ4AaABAg</t>
-  </si>
-  <si>
-    <t>UgwwVsNc-Cf8XIeWVo54AaABAg</t>
-  </si>
-  <si>
-    <t>UgzUX5ksWUebH5EPZO54AaABAg</t>
-  </si>
-  <si>
-    <t>UgygacAY-HjR-IwJSqh4AaABAg</t>
-  </si>
-  <si>
-    <t>UgzYoIqWFaoTK6L_Oy54AaABAg</t>
-  </si>
-  <si>
-    <t>UgzBlui6KEfJuGvGFW94AaABAg</t>
-  </si>
-  <si>
-    <t>Ugw07EdAyK-9NsPq0IV4AaABAg</t>
-  </si>
-  <si>
     <t>UgzB3KcPFGxrlnLCa7p4AaABAg</t>
   </si>
   <si>
-    <t>Ugz3dGK2Hn3dUqVWlYx4AaABAg</t>
+    <t>UgxMe6I451i2C6Pasn14AaABAg</t>
   </si>
   <si>
     <t>UgyDu9R8JLXv_B34ebt4AaABAg</t>
@@ -949,7 +949,7 @@
     <t>Ugzb1kIOKmuA3o_KZ4t4AaABAg</t>
   </si>
   <si>
-    <t>UgxMe6I451i2C6Pasn14AaABAg</t>
+    <t>UgwuavYyCaHIfLMnYhV4AaABAg</t>
   </si>
   <si>
     <t>@gibran_abidin1</t>
@@ -961,12 +961,12 @@
     <t>@riobinyobillionaire4523</t>
   </si>
   <si>
+    <t>@yonasboyke</t>
+  </si>
+  <si>
     <t>@RahmaWati-sr8ft</t>
   </si>
   <si>
-    <t>@yonasboyke</t>
-  </si>
-  <si>
     <t>@hidayat_abdullah</t>
   </si>
   <si>
@@ -991,397 +991,397 @@
     <t>@madukaliandramekarabadi1698</t>
   </si>
   <si>
+    <t>@javabrown4851</t>
+  </si>
+  <si>
+    <t>@cahayalain208</t>
+  </si>
+  <si>
     <t>@jimmycamario</t>
   </si>
   <si>
-    <t>@cahayalain208</t>
-  </si>
-  <si>
-    <t>@javabrown4851</t>
-  </si>
-  <si>
     <t>@efrizal12</t>
   </si>
   <si>
+    <t>@syeefah</t>
+  </si>
+  <si>
+    <t>@AnomSyurot</t>
+  </si>
+  <si>
     <t>@erik_R.I</t>
   </si>
   <si>
-    <t>@AnomSyurot</t>
-  </si>
-  <si>
-    <t>@syeefah</t>
+    <t>@turaya_maisa</t>
   </si>
   <si>
     <t>@dsyeu</t>
   </si>
   <si>
+    <t>@ahmadsyahrir2246</t>
+  </si>
+  <si>
+    <t>@syahmariam2859</t>
+  </si>
+  <si>
+    <t>@emiliasumbawa5533</t>
+  </si>
+  <si>
     <t>@tvituna1920</t>
   </si>
   <si>
-    <t>@user-pj5ug5vp4i</t>
-  </si>
-  <si>
-    <t>@emiliasumbawa5533</t>
-  </si>
-  <si>
-    <t>@syahmariam2859</t>
-  </si>
-  <si>
-    <t>@ahmadsyahrir2246</t>
-  </si>
-  <si>
-    <t>@turaya_maisa</t>
+    <t>@delvia_askia</t>
   </si>
   <si>
     <t>@widyawati3268</t>
   </si>
   <si>
+    <t>@kopi_c09</t>
+  </si>
+  <si>
+    <t>@baninu1</t>
+  </si>
+  <si>
+    <t>@engkarana7833</t>
+  </si>
+  <si>
+    <t>@yustiensagala134</t>
+  </si>
+  <si>
+    <t>@CATUR070</t>
+  </si>
+  <si>
+    <t>@adhitama_elvan</t>
+  </si>
+  <si>
+    <t>@AnggaBoxer-qt3uc</t>
+  </si>
+  <si>
+    <t>@richardlaure8083</t>
+  </si>
+  <si>
     <t>@Jiwongkang-hh3jn</t>
   </si>
   <si>
+    <t>@mamachapanda5884</t>
+  </si>
+  <si>
+    <t>@JokoPrayogo-jq1cw</t>
+  </si>
+  <si>
+    <t>@mellisafabyanca5063</t>
+  </si>
+  <si>
+    <t>@user-rb9tf2uo2x</t>
+  </si>
+  <si>
+    <t>@Tegar2</t>
+  </si>
+  <si>
+    <t>@pakagus6597</t>
+  </si>
+  <si>
+    <t>@anandapuspita9505</t>
+  </si>
+  <si>
+    <t>@anggidemiprayogi7569</t>
+  </si>
+  <si>
+    <t>@safia_saleha0</t>
+  </si>
+  <si>
+    <t>@dandy_montage8944</t>
+  </si>
+  <si>
+    <t>@CTCprojeckt</t>
+  </si>
+  <si>
+    <t>@apriamc684</t>
+  </si>
+  <si>
+    <t>@yusuf_thamrin</t>
+  </si>
+  <si>
+    <t>@QonnyQ</t>
+  </si>
+  <si>
+    <t>@andimakkulau8622</t>
+  </si>
+  <si>
+    <t>@nopitafitriyanti1630</t>
+  </si>
+  <si>
+    <t>@udinawaluddinharahap</t>
+  </si>
+  <si>
+    <t>@canonid4480</t>
+  </si>
+  <si>
+    <t>@idhamroy5672</t>
+  </si>
+  <si>
     <t>@drajatasep3352</t>
   </si>
   <si>
-    <t>@udinawaluddinharahap</t>
-  </si>
-  <si>
-    <t>@engkarana7833</t>
-  </si>
-  <si>
-    <t>@AnggaBoxer-qt3uc</t>
-  </si>
-  <si>
-    <t>@richardlaure8083</t>
-  </si>
-  <si>
-    <t>@safia_saleha0</t>
-  </si>
-  <si>
-    <t>@yusuf_thamrin</t>
-  </si>
-  <si>
-    <t>@JokoPrayogo-jq1cw</t>
-  </si>
-  <si>
-    <t>@yustiensagala134</t>
-  </si>
-  <si>
-    <t>@user-rb9tf2uo2x</t>
-  </si>
-  <si>
-    <t>@dandy_montage8944</t>
-  </si>
-  <si>
-    <t>@anandapuspita9505</t>
-  </si>
-  <si>
-    <t>@Tegar2</t>
-  </si>
-  <si>
-    <t>@adhitama_elvan</t>
-  </si>
-  <si>
-    <t>@pakagus6597</t>
-  </si>
-  <si>
-    <t>@mellisafabyanca5063</t>
-  </si>
-  <si>
-    <t>@mamachapanda5884</t>
-  </si>
-  <si>
-    <t>@delvia_askia</t>
-  </si>
-  <si>
-    <t>@kopi_c09</t>
-  </si>
-  <si>
-    <t>@CATUR070</t>
-  </si>
-  <si>
-    <t>@baninu1</t>
-  </si>
-  <si>
-    <t>@apriamc684</t>
-  </si>
-  <si>
-    <t>@QonnyQ</t>
-  </si>
-  <si>
-    <t>@andimakkulau8622</t>
-  </si>
-  <si>
-    <t>@anggidemiprayogi7569</t>
-  </si>
-  <si>
-    <t>@CTCprojeckt</t>
-  </si>
-  <si>
-    <t>@canonid4480</t>
-  </si>
-  <si>
-    <t>@idhamroy5672</t>
-  </si>
-  <si>
-    <t>@nopitafitriyanti1630</t>
+    <t>@FaniRs</t>
+  </si>
+  <si>
+    <t>@RajaHantu-nd9zc</t>
+  </si>
+  <si>
+    <t>@muhammadishak1153</t>
+  </si>
+  <si>
+    <t>@guntursianipar9444</t>
+  </si>
+  <si>
+    <t>@AndySyaputra-nv3gj</t>
+  </si>
+  <si>
+    <t>@eghaacox9947</t>
+  </si>
+  <si>
+    <t>@yudoharisasongko</t>
+  </si>
+  <si>
+    <t>@sarahngeo.official</t>
+  </si>
+  <si>
+    <t>@dwia3767</t>
+  </si>
+  <si>
+    <t>@rungusbushsong648</t>
+  </si>
+  <si>
+    <t>@bastianujung6788</t>
+  </si>
+  <si>
+    <t>@mhmmd_kevlarr</t>
+  </si>
+  <si>
+    <t>@user-gd3co3it8r</t>
+  </si>
+  <si>
+    <t>@Dunia_info47</t>
   </si>
   <si>
     <t>@anysha_haju</t>
   </si>
   <si>
+    <t>@gaprek_muslihat</t>
+  </si>
+  <si>
+    <t>@anggum_herum</t>
+  </si>
+  <si>
+    <t>@muhammadhatta6506</t>
+  </si>
+  <si>
+    <t>@qumala_zeva</t>
+  </si>
+  <si>
+    <t>@asbiantomenjualbatamerah9122</t>
+  </si>
+  <si>
+    <t>@emaybietobungi7879</t>
+  </si>
+  <si>
+    <t>@musarafa7004</t>
+  </si>
+  <si>
+    <t>@Ggbubur1928</t>
+  </si>
+  <si>
+    <t>@budiajadong3950</t>
+  </si>
+  <si>
+    <t>@dzakia_andra</t>
+  </si>
+  <si>
+    <t>@daryani_firmansyah</t>
+  </si>
+  <si>
+    <t>@jati_prasetya1</t>
+  </si>
+  <si>
+    <t>@JohnimahendraMahendra</t>
+  </si>
+  <si>
+    <t>@watonurip</t>
+  </si>
+  <si>
+    <t>@garislangits8761</t>
+  </si>
+  <si>
+    <t>@user-yl8js5ok4k</t>
+  </si>
+  <si>
+    <t>@look_cool111</t>
+  </si>
+  <si>
+    <t>@ChandoAlex-yf2ly</t>
+  </si>
+  <si>
+    <t>@bangsory</t>
+  </si>
+  <si>
+    <t>@user-xw9ow8dg3e</t>
+  </si>
+  <si>
+    <t>@konipathari4162</t>
+  </si>
+  <si>
+    <t>@ketutneti</t>
+  </si>
+  <si>
+    <t>@inganahnurul9382</t>
+  </si>
+  <si>
+    <t>@iwann4113</t>
+  </si>
+  <si>
+    <t>@minulderin5006</t>
+  </si>
+  <si>
+    <t>@shintaadella4675</t>
+  </si>
+  <si>
+    <t>@LavidaMooiS</t>
+  </si>
+  <si>
     <t>@Notafraidofficial</t>
   </si>
   <si>
+    <t>@andhy4333</t>
+  </si>
+  <si>
     <t>@andrewj3177</t>
   </si>
   <si>
+    <t>@trinurulilmiaayu3091</t>
+  </si>
+  <si>
+    <t>@fxwardjoko4049</t>
+  </si>
+  <si>
+    <t>@vikridreddet2384</t>
+  </si>
+  <si>
+    <t>@maureensetyawan359</t>
+  </si>
+  <si>
+    <t>@attharizkysyawal6836</t>
+  </si>
+  <si>
+    <t>@lizaindo2000</t>
+  </si>
+  <si>
+    <t>@adityapangestu8316</t>
+  </si>
+  <si>
+    <t>@user-tf5hp1ov5d</t>
+  </si>
+  <si>
+    <t>@kinzabdull9235</t>
+  </si>
+  <si>
+    <t>@leeph0ebe713</t>
+  </si>
+  <si>
+    <t>@inungernawati9374</t>
+  </si>
+  <si>
+    <t>@maulanayoga8431</t>
+  </si>
+  <si>
+    <t>@NagitaBilqis</t>
+  </si>
+  <si>
+    <t>@user-jz1fs6km4g</t>
+  </si>
+  <si>
+    <t>@ngnlchannel5364</t>
+  </si>
+  <si>
+    <t>@anitanurjanah3431</t>
+  </si>
+  <si>
+    <t>@KaM7NANYA</t>
+  </si>
+  <si>
+    <t>@user-lq2gh8eo4y</t>
+  </si>
+  <si>
+    <t>@Aripinluky-gh5kw</t>
+  </si>
+  <si>
+    <t>@user-wc8vo9ec7k</t>
+  </si>
+  <si>
+    <t>@LamsiharmanaluManalu123</t>
+  </si>
+  <si>
+    <t>@iyaninginsadar9215</t>
+  </si>
+  <si>
+    <t>@user-yv3ci4ci3t</t>
+  </si>
+  <si>
+    <t>@vickinurulifadhi4130</t>
+  </si>
+  <si>
+    <t>@ferasosializa8973</t>
+  </si>
+  <si>
+    <t>@AndiWahid-zh2ld</t>
+  </si>
+  <si>
+    <t>@paijo120</t>
+  </si>
+  <si>
+    <t>@RiRiz_vlog_dubai88</t>
+  </si>
+  <si>
+    <t>@RemyasJehadan</t>
+  </si>
+  <si>
+    <t>@rudisetiawan7884</t>
+  </si>
+  <si>
+    <t>@nurasihasih1166</t>
+  </si>
+  <si>
+    <t>@morinastevani1657</t>
+  </si>
+  <si>
+    <t>@kartinahsuchidin6542</t>
+  </si>
+  <si>
+    <t>@emmangplp3413</t>
+  </si>
+  <si>
+    <t>@NangGening-nw7jk</t>
+  </si>
+  <si>
+    <t>@Flory-if9rd4xi7d</t>
+  </si>
+  <si>
+    <t>@user-nu6hm1kc4i</t>
+  </si>
+  <si>
     <t>@user-kg2xf2ds2i</t>
   </si>
   <si>
-    <t>@mhmmd_kevlarr</t>
-  </si>
-  <si>
-    <t>@anggum_herum</t>
-  </si>
-  <si>
-    <t>@trinurulilmiaayu3091</t>
-  </si>
-  <si>
-    <t>@fxwardjoko4049</t>
-  </si>
-  <si>
-    <t>@gaprek_muslihat</t>
-  </si>
-  <si>
-    <t>@watonurip</t>
-  </si>
-  <si>
-    <t>@muhammadhatta6506</t>
-  </si>
-  <si>
-    <t>@qumala_zeva</t>
-  </si>
-  <si>
-    <t>@LavidaMooiS</t>
-  </si>
-  <si>
-    <t>@emaybietobungi7879</t>
-  </si>
-  <si>
-    <t>@musarafa7004</t>
-  </si>
-  <si>
-    <t>@Ggbubur1928</t>
-  </si>
-  <si>
-    <t>@budiajadong3950</t>
-  </si>
-  <si>
-    <t>@shintaadella4675</t>
-  </si>
-  <si>
-    <t>@minulderin5006</t>
-  </si>
-  <si>
-    <t>@iwann4113</t>
-  </si>
-  <si>
-    <t>@Dunia_info47</t>
-  </si>
-  <si>
-    <t>@asbiantomenjualbatamerah9122</t>
-  </si>
-  <si>
-    <t>@inganahnurul9382</t>
-  </si>
-  <si>
-    <t>@vikridreddet2384</t>
-  </si>
-  <si>
-    <t>@maulanayoga8431</t>
-  </si>
-  <si>
-    <t>@inungernawati9374</t>
-  </si>
-  <si>
-    <t>@leeph0ebe713</t>
-  </si>
-  <si>
-    <t>@kinzabdull9235</t>
-  </si>
-  <si>
-    <t>@user-tf5hp1ov5d</t>
-  </si>
-  <si>
-    <t>@adityapangestu8316</t>
-  </si>
-  <si>
-    <t>@bastianujung6788</t>
-  </si>
-  <si>
-    <t>@dwia3767</t>
-  </si>
-  <si>
-    <t>@lizaindo2000</t>
-  </si>
-  <si>
-    <t>@FaniRs</t>
-  </si>
-  <si>
-    <t>@rungusbushsong648</t>
-  </si>
-  <si>
-    <t>@user-gd3co3it8r</t>
-  </si>
-  <si>
-    <t>@jati_prasetya1</t>
-  </si>
-  <si>
-    <t>@daryani_firmansyah</t>
-  </si>
-  <si>
-    <t>@attharizkysyawal6836</t>
-  </si>
-  <si>
-    <t>@dzakia_andra</t>
-  </si>
-  <si>
-    <t>@maureensetyawan359</t>
-  </si>
-  <si>
-    <t>@ketutneti</t>
-  </si>
-  <si>
-    <t>@andhy4333</t>
-  </si>
-  <si>
-    <t>@user-yv3ci4ci3t</t>
-  </si>
-  <si>
-    <t>@user-jz1fs6km4g</t>
-  </si>
-  <si>
-    <t>@vickinurulifadhi4130</t>
-  </si>
-  <si>
-    <t>@rudisetiawan7884</t>
+    <t>@sunarbudianto8444</t>
+  </si>
+  <si>
+    <t>@dewipuspitasari7412</t>
   </si>
   <si>
     <t>@user-cb8wn4to7q</t>
   </si>
   <si>
-    <t>@dewipuspitasari7412</t>
-  </si>
-  <si>
-    <t>@paijo120</t>
-  </si>
-  <si>
-    <t>@sunarbudianto8444</t>
-  </si>
-  <si>
-    <t>@ferasosializa8973</t>
-  </si>
-  <si>
-    <t>@AndiWahid-zh2ld</t>
-  </si>
-  <si>
-    <t>@RiRiz_vlog_dubai88</t>
-  </si>
-  <si>
-    <t>@anitanurjanah3431</t>
-  </si>
-  <si>
-    <t>@RemyasJehadan</t>
-  </si>
-  <si>
-    <t>@nurasihasih1166</t>
-  </si>
-  <si>
-    <t>@morinastevani1657</t>
-  </si>
-  <si>
-    <t>@kartinahsuchidin6542</t>
-  </si>
-  <si>
-    <t>@emmangplp3413</t>
-  </si>
-  <si>
-    <t>@NangGening-nw7jk</t>
-  </si>
-  <si>
-    <t>@Flory-if9rd4xi7d</t>
-  </si>
-  <si>
-    <t>@user-nu6hm1kc4i</t>
-  </si>
-  <si>
-    <t>@iyaninginsadar9215</t>
-  </si>
-  <si>
-    <t>@LamsiharmanaluManalu123</t>
-  </si>
-  <si>
-    <t>@konipathari4162</t>
-  </si>
-  <si>
-    <t>@RajaHantu-nd9zc</t>
-  </si>
-  <si>
-    <t>@guntursianipar9444</t>
-  </si>
-  <si>
-    <t>@AndySyaputra-nv3gj</t>
-  </si>
-  <si>
-    <t>@eghaacox9947</t>
-  </si>
-  <si>
-    <t>@sarahngeo.official</t>
-  </si>
-  <si>
-    <t>@user-xw9ow8dg3e</t>
-  </si>
-  <si>
-    <t>@bangsory</t>
-  </si>
-  <si>
-    <t>@yudoharisasongko</t>
-  </si>
-  <si>
-    <t>@muhammadishak1153</t>
-  </si>
-  <si>
-    <t>@ChandoAlex-yf2ly</t>
-  </si>
-  <si>
-    <t>@look_cool111</t>
-  </si>
-  <si>
-    <t>@user-yl8js5ok4k</t>
-  </si>
-  <si>
-    <t>@ngnlchannel5364</t>
-  </si>
-  <si>
-    <t>@KaM7NANYA</t>
-  </si>
-  <si>
-    <t>@user-lq2gh8eo4y</t>
-  </si>
-  <si>
-    <t>@garislangits8761</t>
-  </si>
-  <si>
-    <t>@Aripinluky-gh5kw</t>
-  </si>
-  <si>
-    <t>@NagitaBilqis</t>
-  </si>
-  <si>
-    <t>@user-wc8vo9ec7k</t>
-  </si>
-  <si>
-    <t>@JohnimahendraMahendra</t>
+    <t>@painem4948</t>
   </si>
   <si>
     <t>@user-xd5gh7wy9l</t>
@@ -1627,9 +1627,6 @@
     <t>@frenandoalvero</t>
   </si>
   <si>
-    <t>@painem4948</t>
-  </si>
-  <si>
     <t>@TanBurhan</t>
   </si>
   <si>
@@ -1726,6 +1723,9 @@
     <t>@rudiirek7506</t>
   </si>
   <si>
+    <t>@user-wh4bz4zz8f</t>
+  </si>
+  <si>
     <t>Suara kita adalah kekuatan untuk membentuk masa depan Indonesia, mari gunakan hak pilih kita.😢</t>
   </si>
   <si>
@@ -1735,12 +1735,12 @@
     <t>Keren mas Gibran kamii Milenial support Anda. Tanpa baca penuh3 powerfull dan kasih solusi 🎉  keren ❤ all in Prabowo GIBRAN</t>
   </si>
   <si>
+    <t>Dalam latihan dasar kepemimpinan yg kuingat adalah pemimpin itu bukan berapa kamu tua tapi seberapa bisa kamu memimpin, berani menyuarakan visi misi, menggerakkan masa yg dipimpinnya, menerima kritikan idenya n berani eksekusi dgn pertimbangan2 jitu. Aku&lt;br&gt;Cocok dgn #2 n #3</t>
+  </si>
+  <si>
     <t>Kasihan yah jadi rakyat kecil, petani, nelayan.. Kalau setiap ada debat namanya selalu dipakai tapi ketika pas udah jadi malah mereka diabaikan.. :)</t>
   </si>
   <si>
-    <t>Dalam latihan dasar kepemimpinan yg kuingat adalah pemimpin itu bukan berapa kamu tua tapi seberapa bisa kamu memimpin, berani menyuarakan visi misi, menggerakkan masa yg dipimpinnya, menerima kritikan idenya n berani eksekusi dgn pertimbangan2 jitu. Aku&lt;br&gt;Cocok dgn #2 n #3</t>
-  </si>
-  <si>
     <t>Partisipasi dalam Pemilu adalah bentuk kontribusi kita dalam menciptakan masa depan Indonesia yang lebih baik.</t>
   </si>
   <si>
@@ -1756,454 +1756,454 @@
     <t>Partisipasi dalam Pemilu adalah cara kita memperkuat demokrasi dan melibatkan diri dalam pembangunan negara.</t>
   </si>
   <si>
+    <t>MAS GIBRAN SUPER DETAILS DAN PEDE ALIAS KOMPIDEN SELF ❤❤❤❤✌️✌️✌️✌️✌️✌️✌️✌️</t>
+  </si>
+  <si>
     <t>LUAR BIASA GIBRAN ❤❤❤❤ MILENIAL GENUIN JUJUR DAN BIJAKSANA ❤❤✌️✌️✌️</t>
   </si>
   <si>
-    <t>MAS GIBRAN SUPER DETAILS DAN PEDE ALIAS KOMPIDEN SELF ❤❤❤❤✌️✌️✌️✌️✌️✌️✌️✌️</t>
-  </si>
-  <si>
     <t>KAMI BUKAN KAUM GAJI&lt;br&gt;Lanjutkan apabila perekonomian setabil,biyaya pendidikan setabil,biyaya kesehatan mampu,petani sejatra &lt;br&gt;PERUBAHAN Apabila perekonomian juntai, lapangan kerja susah, biaya pendidikan mahal,biyaya kesehatan mahal, petani serba sulit pupuk.&lt;br&gt;Keputusan kembali ke kita masing&amp;quot;&lt;br&gt;(Jang menjadi pengkhianat diri sendiri) pilihan kita yg menentukan 5 th ke depan.</t>
   </si>
   <si>
+    <t>Desa ditinggal warganya..apa yg hrs dilakukan pemerintah baru?&lt;br&gt;1.pemerintah hrs turun ke desa2 utk melihat potensi apa yg hrs dikembangkan didesa tsb.&lt;br&gt;2.Buat.program pengembangan setelh tau potensi desa&lt;br&gt;3.Lurah/pangulu mengawasi pengembangan bersama ketua2 desa ketua2 adat..&lt;br&gt;4.Pemerintah membangun infrastruktur jalan...&lt;br&gt;5.pemerintah.hrs mendampingi desa dari proses awal s/d akhir sampai berproduksi</t>
+  </si>
+  <si>
     <t>Wooow Mas GIBRAN GENUIN ITULAH MILENIAL MUDA CERDAS ❤❤❤✌️✌️✌️✌️✌️✌️✌️✌️🙏</t>
   </si>
   <si>
-    <t>Desa ditinggal warganya..apa yg hrs dilakukan pemerintah baru?&lt;br&gt;1.pemerintah hrs turun ke desa2 utk melihat potensi apa yg hrs dikembangkan didesa tsb.&lt;br&gt;2.Buat.program pengembangan setelh tau potensi desa&lt;br&gt;3.Lurah/pangulu mengawasi pengembangan bersama ketua2 desa ketua2 adat..&lt;br&gt;4.Pemerintah membangun infrastruktur jalan...&lt;br&gt;5.pemerintah.hrs mendampingi desa dari proses awal s/d akhir sampai berproduksi</t>
+    <t>Gw bakal milih kandidate yg akan melepas ketergantungan ke China. Indonesia tuh luas banget, kaya akan SDA, jangan kalah ma Singapura yg kecil mungil. Kita bisa lebih maju dr mereka kalo punya pemimpin yg berwawasan luas dan maju. Jangn taku bekerja sama ma Amrik/ Jepang/ Korsel. Para petinggi negara, kalo dinas luar, jangan cuman ngendon di kota besar, liatlah ke kota2 kecil mereka, ko bisa mrk maju meski terbatas SDA mereka, meski iklim mereka ektreme (dingin/ bersalju).</t>
+  </si>
+  <si>
+    <t>Salut untuk gibran masih mentingkan etika  walaupun hati panas saling serang dama debat tetapi diakhir acara masih mau cium tangan yang lebih tua...👍👍</t>
   </si>
   <si>
     <t>Cuma 1 org saja memberi salam bagi semua kalangan..</t>
   </si>
   <si>
-    <t>Salut untuk gibran masih mentingkan etika  walaupun hati panas saling serang dama debat tetapi diakhir acara masih mau cium tangan yang lebih tua...👍👍</t>
-  </si>
-  <si>
-    <t>Gw bakal milih kandidate yg akan melepas ketergantungan ke China. Indonesia tuh luas banget, kaya akan SDA, jangan kalah ma Singapura yg kecil mungil. Kita bisa lebih maju dr mereka kalo punya pemimpin yg berwawasan luas dan maju. Jangn taku bekerja sama ma Amrik/ Jepang/ Korsel. Para petinggi negara, kalo dinas luar, jangan cuman ngendon di kota besar, liatlah ke kota2 kecil mereka, ko bisa mrk maju meski terbatas SDA mereka, meski iklim mereka ektreme (dingin/ bersalju).</t>
-  </si>
-  <si>
     <t>Gibran lebih mutu dan sangat berkwalitas. Programnya sederhana dan tdk muluk², terukur dan bisa terjangkau.</t>
   </si>
   <si>
+    <t>Mantap Mas GIBRAN tampil Prima MILENIAL CERDAS Dan details Dan BERKWALITAS ❤❤❤❤✌️✌️✌️</t>
+  </si>
+  <si>
+    <t>Pertanyaanya adalah bagaimana paslon bisa menghadapi krisis pangan (dari susahnya tumbuh pertanian) jika ada perubahan iklim. jujur, bakal ngira jawabannya scientific, mengandung data2 perubahan iklim karena global warming dan dampaknya ke pertanian. memang sempat dibilang kekeringan sama Cak Imin, tetapi jawabannya mayoritas memperbaiki lahan, menggunakan pupuk, tetapi gaada vertical/indoor farming, teknologi2 canggih yang bisa menumbuhkan tanaman tanpa bergantung kepada iklim, dll.</t>
+  </si>
+  <si>
+    <t>Para petani sangat butuh PUPUK YANG MUDAH DAN MURAH. Tapi kualitas tidak murahan. Pupuk Indonesia MAJU, MAKMUR BERSAMA INDONEAIA</t>
+  </si>
+  <si>
     <t>kalo recehan jawab dong prof&lt;br&gt;pertanyaan mas gibran. &lt;br&gt;BOGOR OPTIMIS 02 SATU PUTARAN. &lt;br&gt;PRABOWO ALL IN❤❤</t>
   </si>
   <si>
-    <t>Para petani sangat butuh PUPUK YANG MUDAH DAN MURAH. Tapi kualitas tidak murahan. Pupuk Indonesia MAJU, MAKMUR BERSAMA INDONEAIA</t>
-  </si>
-  <si>
-    <t>Mantap Mas GIBRAN tampil Prima MILENIAL CERDAS Dan details Dan BERKWALITAS ❤❤❤❤✌️✌️✌️</t>
-  </si>
-  <si>
-    <t>Pertanyaanya adalah bagaimana paslon bisa menghadapi krisis pangan (dari susahnya tumbuh pertanian) jika ada perubahan iklim. jujur, bakal ngira jawabannya scientific, mengandung data2 perubahan iklim karena global warming dan dampaknya ke pertanian. memang sempat dibilang kekeringan sama Cak Imin, tetapi jawabannya mayoritas memperbaiki lahan, menggunakan pupuk, tetapi gaada vertical/indoor farming, teknologi2 canggih yang bisa menumbuhkan tanaman tanpa bergantung kepada iklim, dll.</t>
+    <t>Ayo tingkatkan literasi politik agar kita dapat membuat keputusan yang informan dan bijak.</t>
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/watch?v=_V033ckLwcE&amp;amp;t=3898"&gt;1:04:58&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Capres putra Indonesia keturunan Indonesia asli yang utama.  Kemampuan berkata-kata bukan merupakan tolok ukur bisa membawa Indonesia ke arah yang baik tetapi kemampuan kerja mengeksekusi persoalan bangsa Indonesia. Kata - kata tak mampu menyelesaikan persoalan tetapi pengalaman nyata di lapangan kehidupan berbangsa dan bernegara bukan kemampuan berteori dan berjanji</t>
+  </si>
+  <si>
+    <t>gibran jawabnya singkat padat dan jelas,, 👍👍</t>
+  </si>
+  <si>
+    <t>Klo receh seharusnya di jawab jgn di abaikan</t>
+  </si>
+  <si>
     <t>Assalamu Alaikum sahabatku, Prabowo Gibran memang telah didukung oleg banyak pihak. Bravo Prabowo Gibran. dan Like 53.</t>
   </si>
   <si>
-    <t>MANUSIA BERKWALITAS TERPILIH KARENAANUSIA BANYAK MELIHAT BOBOTNYA. ❤</t>
-  </si>
-  <si>
-    <t>Klo receh seharusnya di jawab jgn di abaikan</t>
-  </si>
-  <si>
-    <t>gibran jawabnya singkat padat dan jelas,, 👍👍</t>
-  </si>
-  <si>
-    <t>Capres putra Indonesia keturunan Indonesia asli yang utama.  Kemampuan berkata-kata bukan merupakan tolok ukur bisa membawa Indonesia ke arah yang baik tetapi kemampuan kerja mengeksekusi persoalan bangsa Indonesia. Kata - kata tak mampu menyelesaikan persoalan tetapi pengalaman nyata di lapangan kehidupan berbangsa dan bernegara bukan kemampuan berteori dan berjanji</t>
-  </si>
-  <si>
-    <t>Ayo tingkatkan literasi politik agar kita dapat membuat keputusan yang informan dan bijak.</t>
+    <t>Kebijakan fiskal yang diselaraskan juga berkontribusi pada pengendalian inflasi</t>
   </si>
   <si>
     <t>Betul BPK Ali mansyur, pilih no 2, jgn pilih yg omong kosong, tp pilih lah pemimpin yg baik</t>
   </si>
   <si>
+    <t>Amiiiiin..</t>
+  </si>
+  <si>
+    <t>Karna kita mengetahui kejahatan HAM seseorang yg sampai skrg msh belum mau diungkapkan dimana jasad  mahasiswa yg blm ditemukan, maka bagi para pendukungnya, sama saja mengAMINkan dosa itu.&lt;br&gt;Jadi silahkan sama² tanggung dosanya saat ditanyakan diakhirat nanti.</t>
+  </si>
+  <si>
+    <t>Asss slaiikum mas gibran perabowo semangat ttp pilihan di tetap kan no 2 .</t>
+  </si>
+  <si>
+    <t>Pendukung cawapres 1 dan 3 Nora tidak punya Nalar dan Etika,begitu juga Paskon 1 dan 3 congkak dan meremehkan paslon 2 yg lebih muda.</t>
+  </si>
+  <si>
+    <t>Yg santun ..yg punya etika dan cerdas, itu yg harus di pilih dan di dukung.oleh rakyat.👍</t>
+  </si>
+  <si>
+    <t>Ayo datang ke TPS pada hari pemungutan suara dan berikan suara Anda untuk mendukung calon kita</t>
+  </si>
+  <si>
+    <t>Amin...</t>
+  </si>
+  <si>
+    <t>Orang yg paham dan bijak pasti mendukung Prabowo &amp;amp; Gibran</t>
+  </si>
+  <si>
+    <t>Lama2 makin kesal ya jawaban gibran seperti lupa umur aja...</t>
+  </si>
+  <si>
     <t>Komen ke 600</t>
   </si>
   <si>
+    <t>Isu kesehatan sebagai gaya hidup &amp;quot;milenial&amp;quot; membuat ide2 pertanian organik menjadi pertanian next level yg hanya dikonsumsi oleh masyarakat daya beli tinggi. Harga buah sayur tinggi justru saat berita2 manfaat buah sayur itu viral. Harga dinaikkan di level distributor yg akses medianya lebih baik drpd petani.. petani bisa jd ga tahu. Bagaiman juga kontrol pemerintah terhadap pengendalian harga. Dan membuat pertanian sehat untuk semua level rakyat.</t>
+  </si>
+  <si>
+    <t>Salam kenal saya dari Riau...&lt;br&gt;Saya petani sawit.. tetap hati saya mendukung mas Gibran dan</t>
+  </si>
+  <si>
+    <t>Cak imin lucu bgt nyanyi indonesia raya nya😂</t>
+  </si>
+  <si>
+    <t>Konyolnya didalam ruangan itu bkn cman muslim aja, tapi salamnya cmn, asalamualaikum aja, beda dgn pak gibran</t>
+  </si>
+  <si>
+    <t>Gama theBeast3️⃣🤟❤</t>
+  </si>
+  <si>
+    <t>@ HIKMAH @.....*TIADA PERDEBATAN &amp;amp; TIADA PERSAHABATAN DI DUNIA PANGGUNG SANDIWARA INI KECUALI DI ADAKN ATAU DI DEBATKN ATAU DI SAHABATKN ALLAH YG MH SUCI*.....SHALLU &amp;#39;ALAN NABIY !!!.....ALFAATIHAH)*💖💛💚Ass.wr.wb.</t>
+  </si>
+  <si>
+    <t>Penting nya adab. Di utamakan. :)</t>
+  </si>
+  <si>
+    <t>Bismillah GOLPUT...........</t>
+  </si>
+  <si>
+    <t>Suara kita adalah kekuatan yang membentuk masa depan Indonesia gunakan hak suara kita</t>
+  </si>
+  <si>
+    <t>Heran...tak ada petugas ataupun perempuan panelis yg berhijab. Ini salah satu bukti kepemimpinan yg tidak mengedepankan ataupun dekat dengan tata syari&amp;#39;at.  Moga kedepannya akan lebih baik</t>
+  </si>
+  <si>
+    <t>Knapa gibran klau ngomong kaya orang mau nangis gitu ya</t>
+  </si>
+  <si>
+    <t>di mojokerto..itu wisata desa pasti..terkenal dengan kebun buah coklatnya n dpt penghargaan MURI</t>
+  </si>
+  <si>
+    <t>Suara kita memiliki dampak mari kita jaga kehormatan hak pilih dengan menggunakan hak suara kita</t>
+  </si>
+  <si>
+    <t>Cerdasnya Gibran</t>
+  </si>
+  <si>
+    <t>Sy puas jawabannya Gibran...</t>
+  </si>
+  <si>
+    <t>Saya suka melihat BPK Muhaimin Iskandar menyampaikan visi dan misinya</t>
+  </si>
+  <si>
+    <t>Analisanya harap ada proteksi pd petani agar muncul semangat melakukan agribisnis tanpa ada tekanan atau intervensi setelah menghasilkan produk tani. 🎉</t>
+  </si>
+  <si>
+    <t>🎉maju 02</t>
+  </si>
+  <si>
+    <t>Paslon no 2 plan nya buka lapangan kerja.. sama seperti bpk nya. Janji² mulu.. selama ini bpk nya jabat 2 periode lapangan kerja sulit, para petani teriak harga pupuk mahal, bahasin nikel seperti berpengalaman saja yakin bgt..!! Sya dukung paslon 1 dan 3</t>
+  </si>
+  <si>
     <t>Nyata - Real - Terkini - bukti</t>
   </si>
   <si>
-    <t>Analisanya harap ada proteksi pd petani agar muncul semangat melakukan agribisnis tanpa ada tekanan atau intervensi setelah menghasilkan produk tani. 🎉</t>
-  </si>
-  <si>
-    <t>Asss slaiikum mas gibran perabowo semangat ttp pilihan di tetap kan no 2 .</t>
-  </si>
-  <si>
-    <t>Amin...</t>
-  </si>
-  <si>
-    <t>Orang yg paham dan bijak pasti mendukung Prabowo &amp;amp; Gibran</t>
-  </si>
-  <si>
-    <t>Lama2 makin kesal ya jawaban gibran seperti lupa umur aja...</t>
-  </si>
-  <si>
-    <t>Suara kita adalah kekuatan yang membentuk masa depan Indonesia gunakan hak suara kita</t>
-  </si>
-  <si>
-    <t>Suara kita memiliki dampak mari kita jaga kehormatan hak pilih dengan menggunakan hak suara kita</t>
-  </si>
-  <si>
-    <t>Salam kenal saya dari Riau...&lt;br&gt;Saya petani sawit.. tetap hati saya mendukung mas Gibran dan</t>
-  </si>
-  <si>
-    <t>Pendukung cawapres 1 dan 3 Nora tidak punya Nalar dan Etika,begitu juga Paskon 1 dan 3 congkak dan meremehkan paslon 2 yg lebih muda.</t>
-  </si>
-  <si>
-    <t>Konyolnya didalam ruangan itu bkn cman muslim aja, tapi salamnya cmn, asalamualaikum aja, beda dgn pak gibran</t>
-  </si>
-  <si>
-    <t>Heran...tak ada petugas ataupun perempuan panelis yg berhijab. Ini salah satu bukti kepemimpinan yg tidak mengedepankan ataupun dekat dengan tata syari&amp;#39;at.  Moga kedepannya akan lebih baik</t>
-  </si>
-  <si>
-    <t>Penting nya adab. Di utamakan. :)</t>
-  </si>
-  <si>
-    <t>Gama theBeast3️⃣🤟❤</t>
-  </si>
-  <si>
-    <t>Ayo datang ke TPS pada hari pemungutan suara dan berikan suara Anda untuk mendukung calon kita</t>
-  </si>
-  <si>
-    <t>@ HIKMAH @.....*TIADA PERDEBATAN &amp;amp; TIADA PERSAHABATAN DI DUNIA PANGGUNG SANDIWARA INI KECUALI DI ADAKN ATAU DI DEBATKN ATAU DI SAHABATKN ALLAH YG MH SUCI*.....SHALLU &amp;#39;ALAN NABIY !!!.....ALFAATIHAH)*💖💛💚Ass.wr.wb.</t>
-  </si>
-  <si>
-    <t>Cak imin lucu bgt nyanyi indonesia raya nya😂</t>
-  </si>
-  <si>
-    <t>Isu kesehatan sebagai gaya hidup &amp;quot;milenial&amp;quot; membuat ide2 pertanian organik menjadi pertanian next level yg hanya dikonsumsi oleh masyarakat daya beli tinggi. Harga buah sayur tinggi justru saat berita2 manfaat buah sayur itu viral. Harga dinaikkan di level distributor yg akses medianya lebih baik drpd petani.. petani bisa jd ga tahu. Bagaiman juga kontrol pemerintah terhadap pengendalian harga. Dan membuat pertanian sehat untuk semua level rakyat.</t>
-  </si>
-  <si>
-    <t>Kebijakan fiskal yang diselaraskan juga berkontribusi pada pengendalian inflasi</t>
-  </si>
-  <si>
-    <t>Amiiiiin..</t>
-  </si>
-  <si>
-    <t>Yg santun ..yg punya etika dan cerdas, itu yg harus di pilih dan di dukung.oleh rakyat.👍</t>
-  </si>
-  <si>
-    <t>Karna kita mengetahui kejahatan HAM seseorang yg sampai skrg msh belum mau diungkapkan dimana jasad  mahasiswa yg blm ditemukan, maka bagi para pendukungnya, sama saja mengAMINkan dosa itu.&lt;br&gt;Jadi silahkan sama² tanggung dosanya saat ditanyakan diakhirat nanti.</t>
-  </si>
-  <si>
-    <t>di mojokerto..itu wisata desa pasti..terkenal dengan kebun buah coklatnya n dpt penghargaan MURI</t>
-  </si>
-  <si>
-    <t>Cerdasnya Gibran</t>
-  </si>
-  <si>
-    <t>Sy puas jawabannya Gibran...</t>
-  </si>
-  <si>
-    <t>Bismillah GOLPUT...........</t>
-  </si>
-  <si>
-    <t>Knapa gibran klau ngomong kaya orang mau nangis gitu ya</t>
-  </si>
-  <si>
-    <t>🎉maju 02</t>
-  </si>
-  <si>
-    <t>Paslon no 2 plan nya buka lapangan kerja.. sama seperti bpk nya. Janji² mulu.. selama ini bpk nya jabat 2 periode lapangan kerja sulit, para petani teriak harga pupuk mahal, bahasin nikel seperti berpengalaman saja yakin bgt..!! Sya dukung paslon 1 dan 3</t>
-  </si>
-  <si>
-    <t>Saya suka melihat BPK Muhaimin Iskandar menyampaikan visi dan misinya</t>
+    <t>❤❤❤MAS GIBRAN AWESOME 👍👍👍🙏🙏MAS GIBRAN TAMPIL PRIMA SESUAI ANAK MUDA MILENIAL JUJUR DAN BIJAKSANA ❤❤✌️✌️✌️</t>
+  </si>
+  <si>
+    <t>kosong 1 nyegol trus</t>
+  </si>
+  <si>
+    <t>Yg milih no 2 si .siap2 tahun kehancuran....mungkin Bbm naek jadi 20k...beras jadi 30K..pajak makin naek...perkiraan ramalan mbah googqw</t>
+  </si>
+  <si>
+    <t>Salamnya mana pak mahfud?? Kok di awal menyampaikan narasi gk ngucapin salam buat rakyat??</t>
+  </si>
+  <si>
+    <t>Org yg duduk dipemerintah jgnlah mengkritik sebaiknya memberikan solusi tks.</t>
+  </si>
+  <si>
+    <t>Jgn panggil aku anak kecil paman😂</t>
+  </si>
+  <si>
+    <t>Omon omon masalah pertanian.. btw bapak saya petani pupuk subsidi sangat susah di cari saat mau di pakai .dan apa kabar menteri di bagian bidang ini ?</t>
+  </si>
+  <si>
+    <t>KPU curang gibran di dikte dari blakang sama si dardak tp didiamkan ga ada aturan uniform</t>
+  </si>
+  <si>
+    <t>ALL IN PRABOWO GIBRAN ❤🎉🎉🎉🎉🎉</t>
+  </si>
+  <si>
+    <t>kasian gibran bapak ny di sengol terus kepemerintahan mya</t>
+  </si>
+  <si>
+    <t>Kenapa tak dapat lihat komen</t>
+  </si>
+  <si>
+    <t>Mana program nya Frop kok ngomel2😂😂😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>KOK ga Ada Salam SEJAHTERA Pak Frop Mahmud MD mana menghargai Sesama ETIKA kah ITU 🤭🤭🤭</t>
+  </si>
+  <si>
+    <t>Nyontek dr suara di kuping hahaha</t>
+  </si>
+  <si>
+    <t>Suara kita memiliki kekuatan untuk mengubah kebijakan dan membentuk pemerintahan yang akuntabel.</t>
+  </si>
+  <si>
+    <t>Ganjar Mahfud menang 2024 optimis dan yakin</t>
+  </si>
+  <si>
+    <t>wajah cak imin wajah tukang ngibul..omongan nya gak berkualitas..😂</t>
+  </si>
+  <si>
+    <t>Seperti biasa Mahfud di suruh menyampaikan Visi dan misi dia malah ngelantur ceramah 🤣🤣&lt;br&gt;      Sudalah lah pak, bapak ngurus hukum saja. wapres nnti berbahaya klo di isi org yg bkn pd bidang nya 🤣🤣</t>
   </si>
   <si>
     <t>Partisipasi dalam Pemilu adalah langkah konkrit kita untuk memperjuangkan keadilan sosial.</t>
   </si>
   <si>
+    <t>Partisipasi aktif dalam Pemilu adalah bentuk dukungan demokrasi kita</t>
+  </si>
+  <si>
+    <t>Ayo datang ke TPS pada hari pemungutan suara dan dapatkan suara untuk mendukung calon pilihan kita</t>
+  </si>
+  <si>
+    <t>😊😊😊😊😅😅😊😊😊</t>
+  </si>
+  <si>
+    <t>Keputusan kita di TPS akan membentuk pemerintahan yang mencerminkan aspirasi dan kebutuhan rakyat.</t>
+  </si>
+  <si>
+    <t>semuga. pak anis di berrinkemudahan.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.youtube.com/watch?v=_V033ckLwcE&amp;amp;t=440"&gt;7:20&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Saya pilih capres dan cawapres yang anti oligarki dan peka i</t>
+  </si>
+  <si>
+    <t>Bravo mas gibran</t>
+  </si>
+  <si>
+    <t>Lihat retorika Cak Imin, jadi inget retorika kampanye Jakarta: keberpihakan-keseriusan pemerintah, ternyata hasilnya Jakarta tambah ruwet, lem aibon, hilang pohon di monas, lebih bayar,(baca: markup yang ketahuan, kalo nggak ketahuan... hilang tuh dana, dan mana bukti pengembalian lebih bayarnya).  Begitulah kalau lebih pandai menata kata, kau belajar dari contoh yang terburuk. Hasilnya akankah jadi omdo belaka....?🤣😂</t>
+  </si>
+  <si>
+    <t>Partisipasi dalam Pemilu 2024 adalah hak dan kewajiban kita sebagai warga negara</t>
+  </si>
+  <si>
+    <t>Mari jadikan Pemilu 2024 sebagai momen untuk bersatu dan membangun masa depan yang lebih baik</t>
+  </si>
+  <si>
+    <t>Masih bc teks</t>
+  </si>
+  <si>
+    <t>Saya dengar macam dimesjid,  ceramah</t>
+  </si>
+  <si>
+    <t>Mahmud Mantapp</t>
+  </si>
+  <si>
+    <t>Kenapa harus dirubah? Tinggal Lanjutkan!</t>
+  </si>
+  <si>
+    <t>gerakan apa itu nepo baby? sunggokong?</t>
+  </si>
+  <si>
+    <t>Buah planga plongo songong, manggil nama saja sama pak muhaimin, padahal usianya jauh! Maish sopan bpk mahfud, selaku pakai kata bpk ke pada bpk muhaimin.</t>
+  </si>
+  <si>
+    <t>semua di bahas tanpa tujuan yang nyata, semua di janjikan agar menang 😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>All in prabowo gibran</t>
+  </si>
+  <si>
+    <t>saya netral. tpi jujur no 2/3 itu paling masuk. klo no 1 cuma sekedar kata² aja</t>
+  </si>
+  <si>
+    <t>Asal yg benaaaarrrr</t>
+  </si>
+  <si>
+    <t>Jatim siap menangkan 02 ✌✌</t>
+  </si>
+  <si>
+    <t>Tua&amp;quot; hrsny malu, lbih dwsa yg msh muda</t>
+  </si>
+  <si>
+    <t>🤩</t>
+  </si>
+  <si>
+    <t>Kl saya melihat paslon no 2. Itu dak bedanya dg robot yg bernyawa.</t>
+  </si>
+  <si>
+    <t>seandainya 02 trpilih,,pemilu berikutnya Gibran vs Prabowo saling serang,kita tunggu saja.</t>
+  </si>
+  <si>
+    <t>02❤❤❤</t>
+  </si>
+  <si>
+    <t>But buat anda sekalian ber tiga semangat trs dan jaga kesehatan, terlihat jelas bahwa paslon cawapres urut 2 dan 3 ini nampak lelah dan matanya serta gestur tubuhnya ga dlm posisi bugar.</t>
+  </si>
+  <si>
     <t>Ndengerin sambil makan kacang 😁</t>
   </si>
   <si>
+    <t>Itu gambar yg pojok bawah guna gak sih???... Mohon di voting 😁</t>
+  </si>
+  <si>
     <t>All in 2 / 3&lt;br&gt;Asal jgn gurun</t>
   </si>
   <si>
+    <t>visi misi cak imin sllu aja diselipin sama kritikan pemerintahan sebelumnyaaa.. beda sama gibran, inti visi misinya ngasih solusi kedepannya</t>
+  </si>
+  <si>
+    <t>orang yua pskshfud harud onstrospeksi danaeas firi janganmembenarlsn dirinya sendiri orang lain fisnggap bodoh ga benar itu</t>
+  </si>
+  <si>
+    <t>Mojokerto ora sepele👌</t>
+  </si>
+  <si>
+    <t>Pak Prabowo dan Mas Gibran ❤❤</t>
+  </si>
+  <si>
+    <t>salfok sama cak Imin di awal2 nyanyi nganga nya lebar bener ya😂😂😂</t>
+  </si>
+  <si>
+    <t>Jadi kesimpulannya dari pengamat para generaai muda itu memilih 02.&lt;br&gt;Oke deh, saya juga pilih 02. 💪💪😊😊</t>
+  </si>
+  <si>
+    <t>MANTAP GIBRAN</t>
+  </si>
+  <si>
+    <t>Mahfud Mahfud</t>
+  </si>
+  <si>
+    <t>Iya secara logika menhan sebagai ketua pertahanan dan memimpin pertahanan, sedangkan ketua nya saja di nilai gagal atau tidak lulus oleh si genjer dan anis berarti gaada harganya para tni semuanya yang dibawah kepemimpinan pak prabowo, selama ini tni mempertaruhkan jiwa raganya untuk negeri ini dinilai gagal oleh si genjer dan anis, apalah arti perjuangan para tni selama ini dinilai gagal oleh 2 org tak beretika ini? Kaya mereka pernah merasakan aja jadi seseorang yang mempertahankan negara ini, udh mereka suruh aja di papua di kkb sana, mau tau aja kan dia bisa nilai pak prabowo rendah, coba mereka berati bisa lebih bagus dong pertahanannya untuk indonesia?😅😅</t>
+  </si>
+  <si>
+    <t>Yg di Tanya punya Program kerja apa pak. Bukan mencela kerja orang.. haduh</t>
+  </si>
+  <si>
+    <t>Gibran❤❤❤❤...no2🎉🎉🎉🎉🎉</t>
+  </si>
+  <si>
+    <t>Yg sepuh kok gitu y,seharusnya walaupun prtnyaannya receh,harusnya jwab saja,kan receh ...anggap sja itu murid yg brtnya sma guru ...sma sja yg sepuh mmberikan cntoh yg kurang baik</t>
+  </si>
+  <si>
+    <t>Anak anak jaman noww bocil tii tok mangsutnya ? Wkwkwkwk</t>
+  </si>
+  <si>
+    <t>01 ceramah 02 visi misi gagasan 03 dakwah</t>
+  </si>
+  <si>
+    <t>Saya piilih capres no 2 itu sudah pasti</t>
+  </si>
+  <si>
+    <t>Gua netral nih ya, intinya klean semua keren wkwk 🤣</t>
+  </si>
+  <si>
+    <t>banyak buzzernya ni hahahahaha😂</t>
+  </si>
+  <si>
+    <t>1 tak banyak solusi. adanya kekecewaan. sedangkan bangsa ini butuh solusi untuk menghadapi masa depan</t>
+  </si>
+  <si>
+    <t>Tetap R1. 01 anies &amp;amp; cak imin 1 puteran 100%</t>
+  </si>
+  <si>
+    <t>❤no 1</t>
+  </si>
+  <si>
+    <t>Masuk gak pakek salam keluar pakek salam pula😅😅😅😅</t>
+  </si>
+  <si>
+    <t>MANA NYALI Nya Pak MAHMUD Sudah MENJABAT MENKOPOLHUKAM!!!</t>
+  </si>
+  <si>
+    <t>Prabowo mantab .</t>
+  </si>
+  <si>
+    <t>Pk muhaimin dana desa 5m 😁😁😁nyampe kerakyat nyah ituh paling cuma tambal jalan doang bukan jalan coran bas mi pkmuahimin lurah lurah brengsek yang suka bobol uang lingkungan</t>
+  </si>
+  <si>
+    <t>Kemiskinan petani itu ya pasti tp bkn pemerintah yg disalahkan petani jual sawah ke pengusaha perum lalu dibbangunlah perumahan</t>
+  </si>
+  <si>
+    <t>✌✌✌✌✌✌✌</t>
+  </si>
+  <si>
+    <t>Ass.alaikum mas gibran semangat pilih no 2</t>
+  </si>
+  <si>
+    <t>Waw luar biasa pak gibran&lt;br&gt;🎉🎉✌️👍👍👍👍👍💯💓🇮🇩💓</t>
+  </si>
+  <si>
+    <t>ada capres dan cawapres yang keok &lt;br&gt;dan mendukungnya kepasan coba ayo tebak</t>
+  </si>
+  <si>
+    <t>Sesi terakhir kok 1 sama 3 nyerang pemimpin sekarang.  😂😂.. pertayaan emosi</t>
+  </si>
+  <si>
+    <t>ada dua orang yg susah d nasehati yg pertama yg sedang jatuh cinta kedua pemdukung 1 sama 3😅</t>
+  </si>
+  <si>
+    <t>Anda salah menilainya,pas giliran Ganjar sama Anies serang Prabowo anda menilai apa,</t>
+  </si>
+  <si>
+    <t>😆😆😆,,,masih nyindir tanah 500 hektar,kirain cmn izasah,taunya masih nyerang terus..🤭</t>
+  </si>
+  <si>
+    <t>02 gas keun</t>
+  </si>
+  <si>
+    <t>No 1 bahas iklim, karena ini project besar dari blok barat 😂 duh keliatan bgt deh jadi pesuruh barat</t>
+  </si>
+  <si>
+    <t>1yes</t>
+  </si>
+  <si>
+    <t>Eperesi wajh ga bsa berbohng...saat menympaikn..🤣</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Jangan sembunyi  kata etika yang di maksud pa muhaimin😂😂, apa karena pa Gibran kurang sopan dengan orang tua???😂</t>
+  </si>
+  <si>
+    <t>02 kuat</t>
+  </si>
+  <si>
+    <t>ya itu yg kaling penting pk irogasi</t>
+  </si>
+  <si>
     <t>kalao nggk dj korapso gemana coraya mengatasi korotor2</t>
   </si>
   <si>
-    <t>Suara kita memiliki kekuatan untuk mengubah kebijakan dan membentuk pemerintahan yang akuntabel.</t>
-  </si>
-  <si>
-    <t>Ayo datang ke TPS pada hari pemungutan suara dan dapatkan suara untuk mendukung calon pilihan kita</t>
-  </si>
-  <si>
-    <t>visi misi cak imin sllu aja diselipin sama kritikan pemerintahan sebelumnyaaa.. beda sama gibran, inti visi misinya ngasih solusi kedepannya</t>
-  </si>
-  <si>
-    <t>orang yua pskshfud harud onstrospeksi danaeas firi janganmembenarlsn dirinya sendiri orang lain fisnggap bodoh ga benar itu</t>
-  </si>
-  <si>
-    <t>Partisipasi aktif dalam Pemilu adalah bentuk dukungan demokrasi kita</t>
-  </si>
-  <si>
-    <t>Mahmud Mantapp</t>
-  </si>
-  <si>
-    <t>😊😊😊😊😅😅😊😊😊</t>
-  </si>
-  <si>
-    <t>Keputusan kita di TPS akan membentuk pemerintahan yang mencerminkan aspirasi dan kebutuhan rakyat.</t>
-  </si>
-  <si>
-    <t>But buat anda sekalian ber tiga semangat trs dan jaga kesehatan, terlihat jelas bahwa paslon cawapres urut 2 dan 3 ini nampak lelah dan matanya serta gestur tubuhnya ga dlm posisi bugar.</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.youtube.com/watch?v=_V033ckLwcE&amp;amp;t=440"&gt;7:20&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Saya pilih capres dan cawapres yang anti oligarki dan peka i</t>
-  </si>
-  <si>
-    <t>Bravo mas gibran</t>
-  </si>
-  <si>
-    <t>Lihat retorika Cak Imin, jadi inget retorika kampanye Jakarta: keberpihakan-keseriusan pemerintah, ternyata hasilnya Jakarta tambah ruwet, lem aibon, hilang pohon di monas, lebih bayar,(baca: markup yang ketahuan, kalo nggak ketahuan... hilang tuh dana, dan mana bukti pengembalian lebih bayarnya).  Begitulah kalau lebih pandai menata kata, kau belajar dari contoh yang terburuk. Hasilnya akankah jadi omdo belaka....?🤣😂</t>
-  </si>
-  <si>
-    <t>02❤❤❤</t>
-  </si>
-  <si>
-    <t>seandainya 02 trpilih,,pemilu berikutnya Gibran vs Prabowo saling serang,kita tunggu saja.</t>
-  </si>
-  <si>
-    <t>Kl saya melihat paslon no 2. Itu dak bedanya dg robot yg bernyawa.</t>
-  </si>
-  <si>
-    <t>Seperti biasa Mahfud di suruh menyampaikan Visi dan misi dia malah ngelantur ceramah 🤣🤣&lt;br&gt;      Sudalah lah pak, bapak ngurus hukum saja. wapres nnti berbahaya klo di isi org yg bkn pd bidang nya 🤣🤣</t>
-  </si>
-  <si>
-    <t>semuga. pak anis di berrinkemudahan.</t>
-  </si>
-  <si>
-    <t>🤩</t>
-  </si>
-  <si>
-    <t>Mojokerto ora sepele👌</t>
-  </si>
-  <si>
-    <t>Anak anak jaman noww bocil tii tok mangsutnya ? Wkwkwkwk</t>
-  </si>
-  <si>
-    <t>Yg sepuh kok gitu y,seharusnya walaupun prtnyaannya receh,harusnya jwab saja,kan receh ...anggap sja itu murid yg brtnya sma guru ...sma sja yg sepuh mmberikan cntoh yg kurang baik</t>
-  </si>
-  <si>
-    <t>Gibran❤❤❤❤...no2🎉🎉🎉🎉🎉</t>
-  </si>
-  <si>
-    <t>Yg di Tanya punya Program kerja apa pak. Bukan mencela kerja orang.. haduh</t>
-  </si>
-  <si>
-    <t>Mana program nya Frop kok ngomel2😂😂😂😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t>Iya secara logika menhan sebagai ketua pertahanan dan memimpin pertahanan, sedangkan ketua nya saja di nilai gagal atau tidak lulus oleh si genjer dan anis berarti gaada harganya para tni semuanya yang dibawah kepemimpinan pak prabowo, selama ini tni mempertaruhkan jiwa raganya untuk negeri ini dinilai gagal oleh si genjer dan anis, apalah arti perjuangan para tni selama ini dinilai gagal oleh 2 org tak beretika ini? Kaya mereka pernah merasakan aja jadi seseorang yang mempertahankan negara ini, udh mereka suruh aja di papua di kkb sana, mau tau aja kan dia bisa nilai pak prabowo rendah, coba mereka berati bisa lebih bagus dong pertahanannya untuk indonesia?😅😅</t>
-  </si>
-  <si>
-    <t>KOK ga Ada Salam SEJAHTERA Pak Frop Mahmud MD mana menghargai Sesama ETIKA kah ITU 🤭🤭🤭</t>
-  </si>
-  <si>
-    <t>Mahfud Mahfud</t>
-  </si>
-  <si>
-    <t>❤❤❤MAS GIBRAN AWESOME 👍👍👍🙏🙏MAS GIBRAN TAMPIL PRIMA SESUAI ANAK MUDA MILENIAL JUJUR DAN BIJAKSANA ❤❤✌️✌️✌️</t>
-  </si>
-  <si>
-    <t>Nyontek dr suara di kuping hahaha</t>
-  </si>
-  <si>
-    <t>kasian gibran bapak ny di sengol terus kepemerintahan mya</t>
-  </si>
-  <si>
-    <t>MANTAP GIBRAN</t>
-  </si>
-  <si>
-    <t>Jadi kesimpulannya dari pengamat para generaai muda itu memilih 02.&lt;br&gt;Oke deh, saya juga pilih 02. 💪💪😊😊</t>
-  </si>
-  <si>
-    <t>kosong 1 nyegol trus</t>
-  </si>
-  <si>
-    <t>Kenapa tak dapat lihat komen</t>
-  </si>
-  <si>
-    <t>Ganjar Mahfud menang 2024 optimis dan yakin</t>
-  </si>
-  <si>
-    <t>Mari jadikan Pemilu 2024 sebagai momen untuk bersatu dan membangun masa depan yang lebih baik</t>
-  </si>
-  <si>
-    <t>salfok sama cak Imin di awal2 nyanyi nganga nya lebar bener ya😂😂😂</t>
-  </si>
-  <si>
-    <t>Partisipasi dalam Pemilu 2024 adalah hak dan kewajiban kita sebagai warga negara</t>
-  </si>
-  <si>
-    <t>Pak Prabowo dan Mas Gibran ❤❤</t>
-  </si>
-  <si>
-    <t>wajah cak imin wajah tukang ngibul..omongan nya gak berkualitas..😂</t>
-  </si>
-  <si>
-    <t>Tua&amp;quot; hrsny malu, lbih dwsa yg msh muda</t>
-  </si>
-  <si>
-    <t>Itu gambar yg pojok bawah guna gak sih???... Mohon di voting 😁</t>
-  </si>
-  <si>
-    <t>Kemiskinan petani itu ya pasti tp bkn pemerintah yg disalahkan petani jual sawah ke pengusaha perum lalu dibbangunlah perumahan</t>
-  </si>
-  <si>
-    <t>Saya piilih capres no 2 itu sudah pasti</t>
-  </si>
-  <si>
-    <t>✌✌✌✌✌✌✌</t>
-  </si>
-  <si>
-    <t>😆😆😆,,,masih nyindir tanah 500 hektar,kirain cmn izasah,taunya masih nyerang terus..🤭</t>
+    <t>aoa nggkada yg lain selai hilirisai setiap gagasan kok hilirisasi ters</t>
+  </si>
+  <si>
+    <t>bingung aku pilih yg manah..</t>
+  </si>
+  <si>
+    <t>Md udah nyolong start diawal. Lalu diblas.. 😅😅😅</t>
+  </si>
+  <si>
+    <t>All in Prabowo ✌️</t>
   </si>
   <si>
     <t>siapa menkopolhukam nya ya ? lucu ya pak mahfud.  Cak imin kembar dengan anis si...narasi ,narasi tidak spesifik.... harus objektif gibran menguasai debat ini,,spesifik,,dan mengerti realitas</t>
   </si>
   <si>
-    <t>All in Prabowo ✌️</t>
-  </si>
-  <si>
-    <t>Ass.alaikum mas gibran semangat pilih no 2</t>
-  </si>
-  <si>
-    <t>Md udah nyolong start diawal. Lalu diblas.. 😅😅😅</t>
-  </si>
-  <si>
-    <t>bingung aku pilih yg manah..</t>
-  </si>
-  <si>
-    <t>Waw luar biasa pak gibran&lt;br&gt;🎉🎉✌️👍👍👍👍👍💯💓🇮🇩💓</t>
-  </si>
-  <si>
-    <t>ada capres dan cawapres yang keok &lt;br&gt;dan mendukungnya kepasan coba ayo tebak</t>
-  </si>
-  <si>
-    <t>Sesi terakhir kok 1 sama 3 nyerang pemimpin sekarang.  😂😂.. pertayaan emosi</t>
-  </si>
-  <si>
-    <t>ada dua orang yg susah d nasehati yg pertama yg sedang jatuh cinta kedua pemdukung 1 sama 3😅</t>
-  </si>
-  <si>
-    <t>banyak buzzernya ni hahahahaha😂</t>
-  </si>
-  <si>
-    <t>Anda salah menilainya,pas giliran Ganjar sama Anies serang Prabowo anda menilai apa,</t>
-  </si>
-  <si>
-    <t>02 gas keun</t>
-  </si>
-  <si>
-    <t>No 1 bahas iklim, karena ini project besar dari blok barat 😂 duh keliatan bgt deh jadi pesuruh barat</t>
-  </si>
-  <si>
-    <t>1yes</t>
-  </si>
-  <si>
-    <t>Eperesi wajh ga bsa berbohng...saat menympaikn..🤣</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>aoa nggkada yg lain selai hilirisai setiap gagasan kok hilirisasi ters</t>
-  </si>
-  <si>
-    <t>Jangan sembunyi  kata etika yang di maksud pa muhaimin😂😂, apa karena pa Gibran kurang sopan dengan orang tua???😂</t>
-  </si>
-  <si>
-    <t>02 kuat</t>
-  </si>
-  <si>
-    <t>Pk muhaimin dana desa 5m 😁😁😁nyampe kerakyat nyah ituh paling cuma tambal jalan doang bukan jalan coran bas mi pkmuahimin lurah lurah brengsek yang suka bobol uang lingkungan</t>
-  </si>
-  <si>
-    <t>Prabowo mantab .</t>
-  </si>
-  <si>
-    <t>ya itu yg kaling penting pk irogasi</t>
-  </si>
-  <si>
-    <t>MANA NYALI Nya Pak MAHMUD Sudah MENJABAT MENKOPOLHUKAM!!!</t>
-  </si>
-  <si>
-    <t>Jatim siap menangkan 02 ✌✌</t>
-  </si>
-  <si>
-    <t>Yg milih no 2 si .siap2 tahun kehancuran....mungkin Bbm naek jadi 20k...beras jadi 30K..pajak makin naek...perkiraan ramalan mbah googqw</t>
-  </si>
-  <si>
-    <t>Org yg duduk dipemerintah jgnlah mengkritik sebaiknya memberikan solusi tks.</t>
-  </si>
-  <si>
-    <t>Jgn panggil aku anak kecil paman😂</t>
-  </si>
-  <si>
-    <t>Omon omon masalah pertanian.. btw bapak saya petani pupuk subsidi sangat susah di cari saat mau di pakai .dan apa kabar menteri di bagian bidang ini ?</t>
-  </si>
-  <si>
-    <t>ALL IN PRABOWO GIBRAN ❤🎉🎉🎉🎉🎉</t>
-  </si>
-  <si>
-    <t>Asal yg benaaaarrrr</t>
-  </si>
-  <si>
-    <t>saya netral. tpi jujur no 2/3 itu paling masuk. klo no 1 cuma sekedar kata² aja</t>
-  </si>
-  <si>
-    <t>KPU curang gibran di dikte dari blakang sama si dardak tp didiamkan ga ada aturan uniform</t>
-  </si>
-  <si>
-    <t>Salamnya mana pak mahfud?? Kok di awal menyampaikan narasi gk ngucapin salam buat rakyat??</t>
-  </si>
-  <si>
-    <t>All in prabowo gibran</t>
-  </si>
-  <si>
-    <t>semua di bahas tanpa tujuan yang nyata, semua di janjikan agar menang 😂😂😂😂😂😂</t>
-  </si>
-  <si>
-    <t>Saya dengar macam dimesjid,  ceramah</t>
-  </si>
-  <si>
-    <t>Buah planga plongo songong, manggil nama saja sama pak muhaimin, padahal usianya jauh! Maish sopan bpk mahfud, selaku pakai kata bpk ke pada bpk muhaimin.</t>
-  </si>
-  <si>
-    <t>Gua netral nih ya, intinya klean semua keren wkwk 🤣</t>
-  </si>
-  <si>
-    <t>1 tak banyak solusi. adanya kekecewaan. sedangkan bangsa ini butuh solusi untuk menghadapi masa depan</t>
-  </si>
-  <si>
-    <t>Tetap R1. 01 anies &amp;amp; cak imin 1 puteran 100%</t>
-  </si>
-  <si>
-    <t>gerakan apa itu nepo baby? sunggokong?</t>
-  </si>
-  <si>
-    <t>❤no 1</t>
-  </si>
-  <si>
-    <t>Kenapa harus dirubah? Tinggal Lanjutkan!</t>
-  </si>
-  <si>
-    <t>01 ceramah 02 visi misi gagasan 03 dakwah</t>
-  </si>
-  <si>
-    <t>Masuk gak pakek salam keluar pakek salam pula😅😅😅😅</t>
-  </si>
-  <si>
     <t>Mimin ngomel MELULU Apa program nya dilakukan KEDEPAN min 🫣🫣🫣🫣</t>
   </si>
   <si>
-    <t>Masih bc teks</t>
+    <t>Itulah jaman orba sudah mulai bangkit . untuk sudaraku seluruh indonesia  harus waspada untuk memilih calon pemimoin kita .anda semua harus cerdas jgn tergiur dgn uang pilpres</t>
   </si>
   <si>
     <t>MAS GIBRAN TAMPIL PRIMA DETAILS PENJELASAN NYA❤❤❤❤❤❤✌️✌️✌️✌️✌️✌️✌️👍👍👍👍👍💪💪💪💪💪</t>
@@ -2596,7 +2596,7 @@
     <t>SAYA HARAP YG HARUS DIPERTANYAKAN JIKA ADA ORANG ASING MASUK KE INDONESIA SEPERTI ROHINGNYA HARUS DIKEMBALIKAN DAN KEBIJAKAN HARUS DITEGASKAN😢</t>
   </si>
   <si>
-    <t>Itulah jaman orba sudah mulai bangkit . untuk sudaraku seluruh indonesia  harus waspada untuk memilih calon pemimoin kita .anda semua harus cerdas jgn tergiur dgn uang pilpres</t>
+    <t>Jane gak penting debat2..sing penting sopo sing dadi..wong mengko Nek wes dadi plingono Yo do lali😁😁😁</t>
   </si>
   <si>
     <t>http://www.youtube.com/@gibran_abidin1</t>
@@ -2608,12 +2608,12 @@
     <t>http://www.youtube.com/@riobinyobillionaire4523</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@yonasboyke</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@RahmaWati-sr8ft</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@yonasboyke</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/@hidayat_abdullah</t>
   </si>
   <si>
@@ -2638,397 +2638,397 @@
     <t>http://www.youtube.com/@madukaliandramekarabadi1698</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@javabrown4851</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@cahayalain208</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@jimmycamario</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@cahayalain208</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@javabrown4851</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/@efrizal12</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@syeefah</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@AnomSyurot</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@erik_R.I</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@AnomSyurot</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@syeefah</t>
+    <t>http://www.youtube.com/@turaya_maisa</t>
   </si>
   <si>
     <t>http://www.youtube.com/@dsyeu</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@ahmadsyahrir2246</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@syahmariam2859</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@emiliasumbawa5533</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@tvituna1920</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@user-pj5ug5vp4i</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@emiliasumbawa5533</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@syahmariam2859</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@ahmadsyahrir2246</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@turaya_maisa</t>
+    <t>http://www.youtube.com/@delvia_askia</t>
   </si>
   <si>
     <t>http://www.youtube.com/@widyawati3268</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@kopi_c09</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@baninu1</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@engkarana7833</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@yustiensagala134</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@CATUR070</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@adhitama_elvan</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@AnggaBoxer-qt3uc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@richardlaure8083</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@Jiwongkang-hh3jn</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@mamachapanda5884</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@JokoPrayogo-jq1cw</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@mellisafabyanca5063</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-rb9tf2uo2x</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@Tegar2</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@pakagus6597</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@anandapuspita9505</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@anggidemiprayogi7569</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@safia_saleha0</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@dandy_montage8944</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@CTCprojeckt</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@apriamc684</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@yusuf_thamrin</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@QonnyQ</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@andimakkulau8622</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@nopitafitriyanti1630</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@udinawaluddinharahap</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@canonid4480</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@idhamroy5672</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@drajatasep3352</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@udinawaluddinharahap</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@engkarana7833</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@AnggaBoxer-qt3uc</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@richardlaure8083</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@safia_saleha0</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@yusuf_thamrin</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@JokoPrayogo-jq1cw</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@yustiensagala134</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-rb9tf2uo2x</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@dandy_montage8944</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@anandapuspita9505</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@Tegar2</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@adhitama_elvan</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@pakagus6597</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@mellisafabyanca5063</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@mamachapanda5884</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@delvia_askia</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@kopi_c09</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@CATUR070</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@baninu1</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@apriamc684</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@QonnyQ</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@andimakkulau8622</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@anggidemiprayogi7569</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@CTCprojeckt</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@canonid4480</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@idhamroy5672</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@nopitafitriyanti1630</t>
+    <t>http://www.youtube.com/@FaniRs</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@RajaHantu-nd9zc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@muhammadishak1153</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@guntursianipar9444</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@AndySyaputra-nv3gj</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@eghaacox9947</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@yudoharisasongko</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@sarahngeo.official</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@dwia3767</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@rungusbushsong648</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@bastianujung6788</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@mhmmd_kevlarr</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-gd3co3it8r</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@Dunia_info47</t>
   </si>
   <si>
     <t>http://www.youtube.com/@anysha_haju</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@gaprek_muslihat</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@anggum_herum</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@muhammadhatta6506</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@qumala_zeva</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@asbiantomenjualbatamerah9122</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@emaybietobungi7879</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@musarafa7004</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@Ggbubur1928</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@budiajadong3950</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@dzakia_andra</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@daryani_firmansyah</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@jati_prasetya1</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@JohnimahendraMahendra</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@watonurip</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@garislangits8761</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-yl8js5ok4k</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@look_cool111</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@ChandoAlex-yf2ly</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@bangsory</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-xw9ow8dg3e</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@konipathari4162</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@ketutneti</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@inganahnurul9382</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@iwann4113</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@minulderin5006</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@shintaadella4675</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@LavidaMooiS</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@Notafraidofficial</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@andhy4333</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@andrewj3177</t>
   </si>
   <si>
+    <t>http://www.youtube.com/@trinurulilmiaayu3091</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@fxwardjoko4049</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@vikridreddet2384</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@maureensetyawan359</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@attharizkysyawal6836</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@lizaindo2000</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@adityapangestu8316</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-tf5hp1ov5d</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@kinzabdull9235</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@leeph0ebe713</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@inungernawati9374</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@maulanayoga8431</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@NagitaBilqis</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-jz1fs6km4g</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@ngnlchannel5364</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@anitanurjanah3431</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@KaM7NANYA</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-lq2gh8eo4y</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@Aripinluky-gh5kw</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-wc8vo9ec7k</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@LamsiharmanaluManalu123</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@iyaninginsadar9215</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-yv3ci4ci3t</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@vickinurulifadhi4130</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@ferasosializa8973</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@AndiWahid-zh2ld</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@paijo120</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@RiRiz_vlog_dubai88</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@RemyasJehadan</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@rudisetiawan7884</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@nurasihasih1166</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@morinastevani1657</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@kartinahsuchidin6542</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@emmangplp3413</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@NangGening-nw7jk</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@Flory-if9rd4xi7d</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-nu6hm1kc4i</t>
+  </si>
+  <si>
     <t>http://www.youtube.com/@user-kg2xf2ds2i</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@mhmmd_kevlarr</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@anggum_herum</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@trinurulilmiaayu3091</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@fxwardjoko4049</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@gaprek_muslihat</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@watonurip</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@muhammadhatta6506</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@qumala_zeva</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@LavidaMooiS</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@emaybietobungi7879</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@musarafa7004</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@Ggbubur1928</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@budiajadong3950</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@shintaadella4675</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@minulderin5006</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@iwann4113</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@Dunia_info47</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@asbiantomenjualbatamerah9122</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@inganahnurul9382</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@vikridreddet2384</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@maulanayoga8431</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@inungernawati9374</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@leeph0ebe713</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@kinzabdull9235</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-tf5hp1ov5d</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@adityapangestu8316</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@bastianujung6788</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@dwia3767</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@lizaindo2000</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@FaniRs</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@rungusbushsong648</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-gd3co3it8r</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@jati_prasetya1</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@daryani_firmansyah</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@attharizkysyawal6836</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@dzakia_andra</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@maureensetyawan359</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@ketutneti</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@andhy4333</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-yv3ci4ci3t</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-jz1fs6km4g</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@vickinurulifadhi4130</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@rudisetiawan7884</t>
+    <t>http://www.youtube.com/@sunarbudianto8444</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@dewipuspitasari7412</t>
   </si>
   <si>
     <t>http://www.youtube.com/@user-cb8wn4to7q</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@dewipuspitasari7412</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@paijo120</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@sunarbudianto8444</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@ferasosializa8973</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@AndiWahid-zh2ld</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@RiRiz_vlog_dubai88</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@anitanurjanah3431</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@RemyasJehadan</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@nurasihasih1166</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@morinastevani1657</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@kartinahsuchidin6542</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@emmangplp3413</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@NangGening-nw7jk</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@Flory-if9rd4xi7d</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-nu6hm1kc4i</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@iyaninginsadar9215</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@LamsiharmanaluManalu123</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@konipathari4162</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@RajaHantu-nd9zc</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@guntursianipar9444</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@AndySyaputra-nv3gj</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@eghaacox9947</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@sarahngeo.official</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-xw9ow8dg3e</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@bangsory</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@yudoharisasongko</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@muhammadishak1153</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@ChandoAlex-yf2ly</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@look_cool111</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-yl8js5ok4k</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@ngnlchannel5364</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@KaM7NANYA</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-lq2gh8eo4y</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@garislangits8761</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@Aripinluky-gh5kw</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@NagitaBilqis</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@user-wc8vo9ec7k</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/@JohnimahendraMahendra</t>
+    <t>http://www.youtube.com/@painem4948</t>
   </si>
   <si>
     <t>http://www.youtube.com/@user-xd5gh7wy9l</t>
@@ -3274,9 +3274,6 @@
     <t>http://www.youtube.com/@frenandoalvero</t>
   </si>
   <si>
-    <t>http://www.youtube.com/@painem4948</t>
-  </si>
-  <si>
     <t>http://www.youtube.com/@TanBurhan</t>
   </si>
   <si>
@@ -3371,6 +3368,9 @@
   </si>
   <si>
     <t>http://www.youtube.com/@rudiirek7506</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@user-wh4bz4zz8f</t>
   </si>
 </sst>
 </file>
@@ -3899,16 +3899,16 @@
         <v>18</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>864</v>
       </c>
       <c r="I5" s="3">
-        <v>45322.24174768518</v>
+        <v>45318.27467592592</v>
       </c>
       <c r="J5" s="3">
-        <v>45322.24174768518</v>
+        <v>45318.27467592592</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3931,16 +3931,16 @@
         <v>18</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>865</v>
       </c>
       <c r="I6" s="3">
-        <v>45318.27467592592</v>
+        <v>45322.24174768518</v>
       </c>
       <c r="J6" s="3">
-        <v>45318.27467592592</v>
+        <v>45322.24174768518</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4123,16 +4123,16 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>871</v>
       </c>
       <c r="I12" s="3">
-        <v>45320.6028125</v>
+        <v>45320.58201388889</v>
       </c>
       <c r="J12" s="3">
-        <v>45320.6028125</v>
+        <v>45320.58201388889</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4155,16 +4155,16 @@
         <v>7</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>871</v>
       </c>
       <c r="I13" s="3">
-        <v>45320.58201388889</v>
+        <v>45320.6028125</v>
       </c>
       <c r="J13" s="3">
-        <v>45320.58201388889</v>
+        <v>45320.6028125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4210,7 +4210,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
         <v>583</v>
@@ -4219,16 +4219,16 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="I15" s="3">
-        <v>45320.57800925926</v>
+        <v>45319.21532407407</v>
       </c>
       <c r="J15" s="3">
-        <v>45320.57800925926</v>
+        <v>45319.21532407407</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4242,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
         <v>584</v>
@@ -4251,16 +4251,16 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I16" s="3">
-        <v>45319.21532407407</v>
+        <v>45320.57800925926</v>
       </c>
       <c r="J16" s="3">
-        <v>45319.21532407407</v>
+        <v>45320.57800925926</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4283,16 +4283,16 @@
         <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>874</v>
       </c>
       <c r="I17" s="3">
-        <v>45319.4708912037</v>
+        <v>45319.75605324074</v>
       </c>
       <c r="J17" s="3">
-        <v>45319.4708912037</v>
+        <v>45319.75635416667</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4347,16 +4347,16 @@
         <v>4</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>876</v>
       </c>
       <c r="I19" s="3">
-        <v>45319.75605324074</v>
+        <v>45319.4708912037</v>
       </c>
       <c r="J19" s="3">
-        <v>45319.75635416667</v>
+        <v>45319.4708912037</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4402,7 +4402,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
         <v>589</v>
@@ -4414,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="I21" s="3">
-        <v>45322.92148148148</v>
+        <v>45320.62525462963</v>
       </c>
       <c r="J21" s="3">
-        <v>45322.92148148148</v>
+        <v>45320.62525462963</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4434,7 +4434,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
         <v>590</v>
@@ -4446,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I22" s="3">
-        <v>45318.19991898148</v>
+        <v>45319.78222222222</v>
       </c>
       <c r="J22" s="3">
-        <v>45318.19991898148</v>
+        <v>45319.78222222222</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4466,7 +4466,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E23" t="s">
         <v>591</v>
@@ -4478,13 +4478,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="I23" s="3">
-        <v>45320.62525462963</v>
+        <v>45318.19991898148</v>
       </c>
       <c r="J23" s="3">
-        <v>45320.62525462963</v>
+        <v>45318.19991898148</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4513,10 +4513,10 @@
         <v>880</v>
       </c>
       <c r="I24" s="3">
-        <v>45319.78222222222</v>
+        <v>45322.92148148148</v>
       </c>
       <c r="J24" s="3">
-        <v>45319.78222222222</v>
+        <v>45322.92148148148</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4545,10 +4545,10 @@
         <v>881</v>
       </c>
       <c r="I25" s="3">
-        <v>45323.54982638889</v>
+        <v>45320.3322337963</v>
       </c>
       <c r="J25" s="3">
-        <v>45323.54982638889</v>
+        <v>45320.3322337963</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4577,10 +4577,10 @@
         <v>882</v>
       </c>
       <c r="I26" s="3">
-        <v>45323.92039351852</v>
+        <v>45323.54982638889</v>
       </c>
       <c r="J26" s="3">
-        <v>45323.92039351852</v>
+        <v>45323.54982638889</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4603,16 +4603,16 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>883</v>
       </c>
       <c r="I27" s="3">
-        <v>45318.90717592592</v>
+        <v>45320.32759259259</v>
       </c>
       <c r="J27" s="3">
-        <v>45318.90717592592</v>
+        <v>45320.32759259259</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4635,16 +4635,16 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>884</v>
       </c>
       <c r="I28" s="3">
-        <v>45317.09918981481</v>
+        <v>45337.62324074074</v>
       </c>
       <c r="J28" s="3">
-        <v>45317.09918981481</v>
+        <v>45337.62324074074</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4667,16 +4667,16 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>885</v>
       </c>
       <c r="I29" s="3">
-        <v>45337.62324074074</v>
+        <v>45317.09918981481</v>
       </c>
       <c r="J29" s="3">
-        <v>45337.62324074074</v>
+        <v>45317.09918981481</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4699,16 +4699,16 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>886</v>
       </c>
       <c r="I30" s="3">
-        <v>45320.32759259259</v>
+        <v>45323.92039351852</v>
       </c>
       <c r="J30" s="3">
-        <v>45320.32759259259</v>
+        <v>45323.92039351852</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4728,7 +4728,7 @@
         <v>599</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4737,10 +4737,10 @@
         <v>887</v>
       </c>
       <c r="I31" s="3">
-        <v>45320.3322337963</v>
+        <v>45321.31652777778</v>
       </c>
       <c r="J31" s="3">
-        <v>45320.3322337963</v>
+        <v>45321.31652777778</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4801,10 +4801,10 @@
         <v>889</v>
       </c>
       <c r="I33" s="3">
-        <v>45323.47472222222</v>
+        <v>45320.16716435185</v>
       </c>
       <c r="J33" s="3">
-        <v>45323.47472222222</v>
+        <v>45320.16716435185</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4833,10 +4833,10 @@
         <v>890</v>
       </c>
       <c r="I34" s="3">
-        <v>45320.6050462963</v>
+        <v>45323.63188657408</v>
       </c>
       <c r="J34" s="3">
-        <v>45320.6050462963</v>
+        <v>45323.63188657408</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4865,10 +4865,10 @@
         <v>891</v>
       </c>
       <c r="I35" s="3">
-        <v>45320.66372685185</v>
+        <v>45318.965</v>
       </c>
       <c r="J35" s="3">
-        <v>45320.66372685185</v>
+        <v>45318.965</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4897,10 +4897,10 @@
         <v>892</v>
       </c>
       <c r="I36" s="3">
-        <v>45318.965</v>
+        <v>45319.93577546296</v>
       </c>
       <c r="J36" s="3">
-        <v>45318.965</v>
+        <v>45319.93577546296</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4914,7 +4914,7 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
         <v>605</v>
@@ -4926,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="I37" s="3">
-        <v>45318.97203703703</v>
+        <v>45324.05309027778</v>
       </c>
       <c r="J37" s="3">
-        <v>45318.97203703703</v>
+        <v>45324.05309027778</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4946,7 +4946,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
         <v>606</v>
@@ -4955,16 +4955,16 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I38" s="3">
-        <v>45319.04251157407</v>
+        <v>45320.26130787037</v>
       </c>
       <c r="J38" s="3">
-        <v>45319.04251157407</v>
+        <v>45320.26130787037</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4978,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E39" t="s">
         <v>607</v>
@@ -4987,16 +4987,16 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="I39" s="3">
-        <v>45323.71930555555</v>
+        <v>45318.97203703703</v>
       </c>
       <c r="J39" s="3">
-        <v>45323.71930555555</v>
+        <v>45318.97203703703</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -5019,16 +5019,16 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>895</v>
       </c>
       <c r="I40" s="3">
-        <v>45320.42106481481</v>
+        <v>45319.04251157407</v>
       </c>
       <c r="J40" s="3">
-        <v>45320.42106481481</v>
+        <v>45319.04251157407</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5051,16 +5051,16 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>896</v>
       </c>
       <c r="I41" s="3">
-        <v>45320.3356712963</v>
+        <v>45323.71930555555</v>
       </c>
       <c r="J41" s="3">
-        <v>45320.3356712963</v>
+        <v>45323.71930555555</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5089,10 +5089,10 @@
         <v>897</v>
       </c>
       <c r="I42" s="3">
-        <v>45323.38814814815</v>
+        <v>45323.47472222222</v>
       </c>
       <c r="J42" s="3">
-        <v>45323.38814814815</v>
+        <v>45323.47472222222</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5121,10 +5121,10 @@
         <v>898</v>
       </c>
       <c r="I43" s="3">
-        <v>45319.93577546296</v>
+        <v>45322.57032407408</v>
       </c>
       <c r="J43" s="3">
-        <v>45319.93577546296</v>
+        <v>45322.57032407408</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5153,10 +5153,10 @@
         <v>899</v>
       </c>
       <c r="I44" s="3">
-        <v>45319.29518518518</v>
+        <v>45323.38814814815</v>
       </c>
       <c r="J44" s="3">
-        <v>45319.29518518518</v>
+        <v>45323.38814814815</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5185,10 +5185,10 @@
         <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>45321.24400462963</v>
+        <v>45322.64295138889</v>
       </c>
       <c r="J45" s="3">
-        <v>45321.24400462963</v>
+        <v>45322.64295138889</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5211,16 +5211,16 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>901</v>
       </c>
       <c r="I46" s="3">
-        <v>45319.3480324074</v>
+        <v>45319.29518518518</v>
       </c>
       <c r="J46" s="3">
-        <v>45319.3480324074</v>
+        <v>45319.29518518518</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5281,10 +5281,10 @@
         <v>903</v>
       </c>
       <c r="I48" s="3">
-        <v>45320.26130787037</v>
+        <v>45320.25493055556</v>
       </c>
       <c r="J48" s="3">
-        <v>45320.26130787037</v>
+        <v>45320.25493055556</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -5307,16 +5307,16 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>904</v>
       </c>
       <c r="I49" s="3">
-        <v>45320.25493055556</v>
+        <v>45319.3480324074</v>
       </c>
       <c r="J49" s="3">
-        <v>45320.25493055556</v>
+        <v>45319.3480324074</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -5345,10 +5345,10 @@
         <v>905</v>
       </c>
       <c r="I50" s="3">
-        <v>45322.64295138889</v>
+        <v>45317.52883101852</v>
       </c>
       <c r="J50" s="3">
-        <v>45322.64295138889</v>
+        <v>45317.52883101852</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5377,10 +5377,10 @@
         <v>906</v>
       </c>
       <c r="I51" s="3">
-        <v>45322.57032407408</v>
+        <v>45320.42106481481</v>
       </c>
       <c r="J51" s="3">
-        <v>45322.57032407408</v>
+        <v>45320.42106481481</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5409,10 +5409,10 @@
         <v>907</v>
       </c>
       <c r="I52" s="3">
-        <v>45321.31652777778</v>
+        <v>45321.24400462963</v>
       </c>
       <c r="J52" s="3">
-        <v>45321.31652777778</v>
+        <v>45321.24400462963</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5441,10 +5441,10 @@
         <v>908</v>
       </c>
       <c r="I53" s="3">
-        <v>45320.16716435185</v>
+        <v>45317.69381944444</v>
       </c>
       <c r="J53" s="3">
-        <v>45320.16716435185</v>
+        <v>45317.69381944444</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -5473,10 +5473,10 @@
         <v>909</v>
       </c>
       <c r="I54" s="3">
-        <v>45324.05309027778</v>
+        <v>45331.16920138889</v>
       </c>
       <c r="J54" s="3">
-        <v>45324.05309027778</v>
+        <v>45331.16920138889</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5505,10 +5505,10 @@
         <v>910</v>
       </c>
       <c r="I55" s="3">
-        <v>45323.63188657408</v>
+        <v>45320.3356712963</v>
       </c>
       <c r="J55" s="3">
-        <v>45323.63188657408</v>
+        <v>45320.3356712963</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5537,10 +5537,10 @@
         <v>911</v>
       </c>
       <c r="I56" s="3">
-        <v>45331.16920138889</v>
+        <v>45318.06923611111</v>
       </c>
       <c r="J56" s="3">
-        <v>45331.16920138889</v>
+        <v>45318.06923611111</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5569,10 +5569,10 @@
         <v>912</v>
       </c>
       <c r="I57" s="3">
-        <v>45318.06923611111</v>
+        <v>45325.81783564815</v>
       </c>
       <c r="J57" s="3">
-        <v>45318.06923611111</v>
+        <v>45325.81783564815</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5601,10 +5601,10 @@
         <v>913</v>
       </c>
       <c r="I58" s="3">
-        <v>45325.81783564815</v>
+        <v>45328.59721064815</v>
       </c>
       <c r="J58" s="3">
-        <v>45325.81783564815</v>
+        <v>45328.59721064815</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5633,10 +5633,10 @@
         <v>914</v>
       </c>
       <c r="I59" s="3">
-        <v>45317.52883101852</v>
+        <v>45320.66372685185</v>
       </c>
       <c r="J59" s="3">
-        <v>45317.52883101852</v>
+        <v>45320.66372685185</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5665,10 +5665,10 @@
         <v>915</v>
       </c>
       <c r="I60" s="3">
-        <v>45317.69381944444</v>
+        <v>45318.1509375</v>
       </c>
       <c r="J60" s="3">
-        <v>45317.69381944444</v>
+        <v>45318.1509375</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5691,16 +5691,16 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>916</v>
       </c>
       <c r="I61" s="3">
-        <v>45318.1509375</v>
+        <v>45317.23878472222</v>
       </c>
       <c r="J61" s="3">
-        <v>45318.1509375</v>
+        <v>45317.23878472222</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5723,16 +5723,16 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>917</v>
       </c>
       <c r="I62" s="3">
-        <v>45317.23878472222</v>
+        <v>45320.6050462963</v>
       </c>
       <c r="J62" s="3">
-        <v>45317.23878472222</v>
+        <v>45320.6050462963</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5746,25 +5746,25 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
         <v>631</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>918</v>
+        <v>871</v>
       </c>
       <c r="I63" s="3">
-        <v>45328.59721064815</v>
+        <v>45320.56442129629</v>
       </c>
       <c r="J63" s="3">
-        <v>45328.59721064815</v>
+        <v>45320.57533564815</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5778,7 +5778,7 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
         <v>632</v>
@@ -5790,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I64" s="3">
-        <v>45320.22670138889</v>
+        <v>45320.37895833333</v>
       </c>
       <c r="J64" s="3">
-        <v>45320.22670138889</v>
+        <v>45320.37895833333</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5810,7 +5810,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
         <v>633</v>
@@ -5822,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I65" s="3">
-        <v>45317.63975694445</v>
+        <v>45319.7193287037</v>
       </c>
       <c r="J65" s="3">
-        <v>45317.63975694445</v>
+        <v>45319.7193287037</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5842,7 +5842,7 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E66" t="s">
         <v>634</v>
@@ -5851,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I66" s="3">
-        <v>45317.59046296297</v>
+        <v>45319.44925925926</v>
       </c>
       <c r="J66" s="3">
-        <v>45317.59046296297</v>
+        <v>45319.44925925926</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5874,7 +5874,7 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E67" t="s">
         <v>635</v>
@@ -5886,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I67" s="3">
-        <v>45318.52019675926</v>
+        <v>45319.62914351852</v>
       </c>
       <c r="J67" s="3">
-        <v>45318.52019675926</v>
+        <v>45319.62914351852</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5906,7 +5906,7 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E68" t="s">
         <v>636</v>
@@ -5918,13 +5918,13 @@
         <v>0</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I68" s="3">
-        <v>45320.25728009259</v>
+        <v>45319.61770833333</v>
       </c>
       <c r="J68" s="3">
-        <v>45320.25728009259</v>
+        <v>45319.61770833333</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5938,7 +5938,7 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
         <v>637</v>
@@ -5947,16 +5947,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I69" s="3">
-        <v>45320.22188657407</v>
+        <v>45319.57282407407</v>
       </c>
       <c r="J69" s="3">
-        <v>45320.22188657407</v>
+        <v>45319.57282407407</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5970,7 +5970,7 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
         <v>638</v>
@@ -5982,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I70" s="3">
-        <v>45317.56259259259</v>
+        <v>45319.45684027778</v>
       </c>
       <c r="J70" s="3">
-        <v>45317.56259259259</v>
+        <v>45319.45684027778</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -6002,7 +6002,7 @@
         <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E71" t="s">
         <v>639</v>
@@ -6014,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I71" s="3">
-        <v>45317.54420138889</v>
+        <v>45319.54571759259</v>
       </c>
       <c r="J71" s="3">
-        <v>45317.54420138889</v>
+        <v>45319.54571759259</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -6034,7 +6034,7 @@
         <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E72" t="s">
         <v>640</v>
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I72" s="3">
-        <v>45320.22548611111</v>
+        <v>45320.50821759259</v>
       </c>
       <c r="J72" s="3">
-        <v>45320.22548611111</v>
+        <v>45320.50821759259</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6066,7 +6066,7 @@
         <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E73" t="s">
         <v>641</v>
@@ -6078,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I73" s="3">
-        <v>45317.66980324074</v>
+        <v>45320.37459490741</v>
       </c>
       <c r="J73" s="3">
-        <v>45317.66980324074</v>
+        <v>45320.37459490741</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6098,7 +6098,7 @@
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
         <v>642</v>
@@ -6110,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>929</v>
+        <v>871</v>
       </c>
       <c r="I74" s="3">
-        <v>45320.21725694444</v>
+        <v>45320.56791666667</v>
       </c>
       <c r="J74" s="3">
-        <v>45320.21725694444</v>
+        <v>45320.56881944444</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6130,7 +6130,7 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
       <c r="E75" t="s">
         <v>643</v>
@@ -6142,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>930</v>
+        <v>871</v>
       </c>
       <c r="I75" s="3">
-        <v>45320.28355324074</v>
+        <v>45320.56715277778</v>
       </c>
       <c r="J75" s="3">
-        <v>45320.28355324074</v>
+        <v>45320.56715277778</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6162,7 +6162,7 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E76" t="s">
         <v>644</v>
@@ -6174,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="I76" s="3">
-        <v>45317.6718287037</v>
+        <v>45320.54070601852</v>
       </c>
       <c r="J76" s="3">
-        <v>45317.6718287037</v>
+        <v>45320.54070601852</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -6194,7 +6194,7 @@
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E77" t="s">
         <v>645</v>
@@ -6206,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="I77" s="3">
-        <v>45320.13347222222</v>
+        <v>45320.25728009259</v>
       </c>
       <c r="J77" s="3">
-        <v>45320.13347222222</v>
+        <v>45320.25728009259</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -6226,7 +6226,7 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E78" t="s">
         <v>646</v>
@@ -6238,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I78" s="3">
-        <v>45319.9834375</v>
+        <v>45320.34815972222</v>
       </c>
       <c r="J78" s="3">
-        <v>45319.9834375</v>
+        <v>45320.34815972222</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -6258,7 +6258,7 @@
         <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="E79" t="s">
         <v>647</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>934</v>
+        <v>867</v>
       </c>
       <c r="I79" s="3">
-        <v>45319.92402777778</v>
+        <v>45319.74916666667</v>
       </c>
       <c r="J79" s="3">
-        <v>45319.92402777778</v>
+        <v>45319.74916666667</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -6290,7 +6290,7 @@
         <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
         <v>648</v>
@@ -6302,13 +6302,13 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="I80" s="3">
-        <v>45319.87868055556</v>
+        <v>45320.27379629629</v>
       </c>
       <c r="J80" s="3">
-        <v>45319.87927083333</v>
+        <v>45320.27418981482</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -6322,7 +6322,7 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E81" t="s">
         <v>649</v>
@@ -6334,13 +6334,13 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="I81" s="3">
-        <v>45317.68002314815</v>
+        <v>45320.22670138889</v>
       </c>
       <c r="J81" s="3">
-        <v>45317.68002314815</v>
+        <v>45320.22670138889</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -6354,7 +6354,7 @@
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E82" t="s">
         <v>650</v>
@@ -6366,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="I82" s="3">
-        <v>45317.71108796296</v>
+        <v>45320.22548611111</v>
       </c>
       <c r="J82" s="3">
-        <v>45317.71108796296</v>
+        <v>45320.22548611111</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -6386,7 +6386,7 @@
         <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E83" t="s">
         <v>651</v>
@@ -6395,16 +6395,16 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="I83" s="3">
-        <v>45317.72119212963</v>
+        <v>45320.22188657407</v>
       </c>
       <c r="J83" s="3">
-        <v>45317.72119212963</v>
+        <v>45320.22188657407</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6418,7 +6418,7 @@
         <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E84" t="s">
         <v>652</v>
@@ -6430,13 +6430,13 @@
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="I84" s="3">
-        <v>45320.27379629629</v>
+        <v>45320.21725694444</v>
       </c>
       <c r="J84" s="3">
-        <v>45320.27418981482</v>
+        <v>45320.21725694444</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6450,7 +6450,7 @@
         <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E85" t="s">
         <v>653</v>
@@ -6462,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="I85" s="3">
-        <v>45320.29770833333</v>
+        <v>45320.28355324074</v>
       </c>
       <c r="J85" s="3">
-        <v>45320.29770833333</v>
+        <v>45320.28355324074</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -6482,7 +6482,7 @@
         <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
         <v>654</v>
@@ -6494,13 +6494,13 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="I86" s="3">
-        <v>45317.7953125</v>
+        <v>45320.29770833333</v>
       </c>
       <c r="J86" s="3">
-        <v>45317.7953125</v>
+        <v>45320.29770833333</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6514,7 +6514,7 @@
         <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E87" t="s">
         <v>655</v>
@@ -6526,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="I87" s="3">
-        <v>45317.53939814815</v>
+        <v>45320.13347222222</v>
       </c>
       <c r="J87" s="3">
-        <v>45317.53939814815</v>
+        <v>45320.13347222222</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6546,7 +6546,7 @@
         <v>98</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
         <v>656</v>
@@ -6558,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I88" s="3">
-        <v>45317.14445601852</v>
+        <v>45319.9834375</v>
       </c>
       <c r="J88" s="3">
-        <v>45317.14445601852</v>
+        <v>45319.9834375</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6578,7 +6578,7 @@
         <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
         <v>657</v>
@@ -6587,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="I89" s="3">
-        <v>45317.17840277778</v>
+        <v>45319.92402777778</v>
       </c>
       <c r="J89" s="3">
-        <v>45317.17840277778</v>
+        <v>45319.92402777778</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -6610,7 +6610,7 @@
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E90" t="s">
         <v>658</v>
@@ -6622,13 +6622,13 @@
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="I90" s="3">
-        <v>45317.19009259259</v>
+        <v>45319.87868055556</v>
       </c>
       <c r="J90" s="3">
-        <v>45317.19009259259</v>
+        <v>45319.87927083333</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -6642,7 +6642,7 @@
         <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E91" t="s">
         <v>659</v>
@@ -6654,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I91" s="3">
-        <v>45317.23116898148</v>
+        <v>45320.33309027777</v>
       </c>
       <c r="J91" s="3">
-        <v>45317.23116898148</v>
+        <v>45320.33309027777</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6674,7 +6674,7 @@
         <v>102</v>
       </c>
       <c r="D92" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="E92" t="s">
         <v>660</v>
@@ -6686,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>871</v>
+        <v>943</v>
       </c>
       <c r="I92" s="3">
-        <v>45320.56791666667</v>
+        <v>45320.33721064815</v>
       </c>
       <c r="J92" s="3">
-        <v>45320.56881944444</v>
+        <v>45320.33721064815</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6706,25 +6706,25 @@
         <v>103</v>
       </c>
       <c r="D93" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E93" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I93" s="3">
-        <v>45317.24327546296</v>
+        <v>45320.34508101852</v>
       </c>
       <c r="J93" s="3">
-        <v>45317.24327546296</v>
+        <v>45320.34508101852</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6738,10 +6738,10 @@
         <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E94" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6750,13 +6750,13 @@
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I94" s="3">
-        <v>45320.56715277778</v>
+        <v>45319.74927083333</v>
       </c>
       <c r="J94" s="3">
-        <v>45320.56715277778</v>
+        <v>45319.74927083333</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6770,10 +6770,10 @@
         <v>105</v>
       </c>
       <c r="D95" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E95" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6782,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="I95" s="3">
-        <v>45317.30003472222</v>
+        <v>45320.3469675926</v>
       </c>
       <c r="J95" s="3">
-        <v>45317.30003472222</v>
+        <v>45320.3469675926</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6802,10 +6802,10 @@
         <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="E96" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6814,13 +6814,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="I96" s="3">
-        <v>45320.56442129629</v>
+        <v>45320.3477199074</v>
       </c>
       <c r="J96" s="3">
-        <v>45320.57533564815</v>
+        <v>45320.3477199074</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6834,10 +6834,10 @@
         <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="E97" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6846,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>949</v>
+        <v>867</v>
       </c>
       <c r="I97" s="3">
-        <v>45320.54070601852</v>
+        <v>45319.74917824074</v>
       </c>
       <c r="J97" s="3">
-        <v>45320.54070601852</v>
+        <v>45319.74917824074</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6866,10 +6866,10 @@
         <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6878,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="I98" s="3">
-        <v>45320.50821759259</v>
+        <v>45382.68230324074</v>
       </c>
       <c r="J98" s="3">
-        <v>45320.50821759259</v>
+        <v>45382.68230324074</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6898,10 +6898,10 @@
         <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="E99" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -6910,13 +6910,13 @@
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>948</v>
+        <v>901</v>
       </c>
       <c r="I99" s="3">
-        <v>45317.30068287037</v>
+        <v>45319.29616898148</v>
       </c>
       <c r="J99" s="3">
-        <v>45317.30068287037</v>
+        <v>45319.29616898148</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6930,10 +6930,10 @@
         <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E100" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -6942,13 +6942,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="I100" s="3">
-        <v>45317.32594907407</v>
+        <v>45317.66980324074</v>
       </c>
       <c r="J100" s="3">
-        <v>45317.32626157408</v>
+        <v>45317.66980324074</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6962,10 +6962,10 @@
         <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="E101" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6974,13 +6974,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>952</v>
+        <v>879</v>
       </c>
       <c r="I101" s="3">
-        <v>45320.37895833333</v>
+        <v>45318.19790509259</v>
       </c>
       <c r="J101" s="3">
-        <v>45320.37895833333</v>
+        <v>45318.19790509259</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6994,10 +6994,10 @@
         <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7006,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I102" s="3">
-        <v>45320.37459490741</v>
+        <v>45318.14758101852</v>
       </c>
       <c r="J102" s="3">
-        <v>45320.37459490741</v>
+        <v>45318.14758101852</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -7026,10 +7026,10 @@
         <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E103" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7038,13 +7038,13 @@
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="I103" s="3">
-        <v>45320.34815972222</v>
+        <v>45318.1466087963</v>
       </c>
       <c r="J103" s="3">
-        <v>45320.34815972222</v>
+        <v>45318.1466087963</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -7058,10 +7058,10 @@
         <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E104" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7070,13 +7070,13 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="I104" s="3">
-        <v>45320.3477199074</v>
+        <v>45318.12887731481</v>
       </c>
       <c r="J104" s="3">
-        <v>45320.3477199074</v>
+        <v>45318.12887731481</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -7090,10 +7090,10 @@
         <v>115</v>
       </c>
       <c r="D105" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E105" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I105" s="3">
-        <v>45320.3469675926</v>
+        <v>45318.12043981482</v>
       </c>
       <c r="J105" s="3">
-        <v>45320.3469675926</v>
+        <v>45318.12043981482</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7122,10 +7122,10 @@
         <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E106" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7134,13 +7134,13 @@
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I106" s="3">
-        <v>45320.34508101852</v>
+        <v>45318.11722222222</v>
       </c>
       <c r="J106" s="3">
-        <v>45320.34508101852</v>
+        <v>45318.11722222222</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -7154,10 +7154,10 @@
         <v>117</v>
       </c>
       <c r="D107" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E107" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7166,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I107" s="3">
-        <v>45320.33721064815</v>
+        <v>45318.01256944444</v>
       </c>
       <c r="J107" s="3">
-        <v>45320.33721064815</v>
+        <v>45318.01256944444</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -7186,10 +7186,10 @@
         <v>118</v>
       </c>
       <c r="D108" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E108" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -7198,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I108" s="3">
-        <v>45317.32791666667</v>
+        <v>45317.88155092593</v>
       </c>
       <c r="J108" s="3">
-        <v>45317.32791666667</v>
+        <v>45317.88155092593</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -7218,10 +7218,10 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E109" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -7230,13 +7230,13 @@
         <v>0</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I109" s="3">
-        <v>45320.33309027777</v>
+        <v>45317.82793981482</v>
       </c>
       <c r="J109" s="3">
-        <v>45320.33309027777</v>
+        <v>45317.82793981482</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -7250,25 +7250,25 @@
         <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E110" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I110" s="3">
-        <v>45317.44423611111</v>
+        <v>45317.7953125</v>
       </c>
       <c r="J110" s="3">
-        <v>45317.44423611111</v>
+        <v>45317.7953125</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -7282,25 +7282,25 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="E111" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>867</v>
+        <v>956</v>
       </c>
       <c r="I111" s="3">
-        <v>45319.74927083333</v>
+        <v>45317.72119212963</v>
       </c>
       <c r="J111" s="3">
-        <v>45319.74927083333</v>
+        <v>45317.72119212963</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -7314,10 +7314,10 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>318</v>
+        <v>408</v>
       </c>
       <c r="E112" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>867</v>
+        <v>957</v>
       </c>
       <c r="I112" s="3">
-        <v>45319.74917824074</v>
+        <v>45317.71108796296</v>
       </c>
       <c r="J112" s="3">
-        <v>45319.74917824074</v>
+        <v>45317.71108796296</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -7346,10 +7346,10 @@
         <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E113" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -7358,13 +7358,13 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I113" s="3">
-        <v>45317.82793981482</v>
+        <v>45317.68002314815</v>
       </c>
       <c r="J113" s="3">
-        <v>45317.82793981482</v>
+        <v>45317.68002314815</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -7378,25 +7378,25 @@
         <v>124</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E114" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I114" s="3">
-        <v>45318.20326388889</v>
+        <v>45317.6718287037</v>
       </c>
       <c r="J114" s="3">
-        <v>45318.20326388889</v>
+        <v>45317.6718287037</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -7410,25 +7410,25 @@
         <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E115" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I115" s="3">
-        <v>45319.10239583333</v>
+        <v>45317.63975694445</v>
       </c>
       <c r="J115" s="3">
-        <v>45319.10239583333</v>
+        <v>45317.63975694445</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -7442,25 +7442,25 @@
         <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E116" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I116" s="3">
-        <v>45318.21420138889</v>
+        <v>45318.20326388889</v>
       </c>
       <c r="J116" s="3">
-        <v>45318.21420138889</v>
+        <v>45318.20326388889</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7474,10 +7474,10 @@
         <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E117" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I117" s="3">
-        <v>45319.00103009259</v>
+        <v>45317.59046296297</v>
       </c>
       <c r="J117" s="3">
-        <v>45319.00103009259</v>
+        <v>45317.59046296297</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7506,10 +7506,10 @@
         <v>128</v>
       </c>
       <c r="D118" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -7518,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I118" s="3">
-        <v>45318.23993055556</v>
+        <v>45317.56259259259</v>
       </c>
       <c r="J118" s="3">
-        <v>45318.23993055556</v>
+        <v>45317.56259259259</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7538,10 +7538,10 @@
         <v>129</v>
       </c>
       <c r="D119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E119" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -7550,13 +7550,13 @@
         <v>0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I119" s="3">
-        <v>45318.29119212963</v>
+        <v>45317.54420138889</v>
       </c>
       <c r="J119" s="3">
-        <v>45318.29119212963</v>
+        <v>45317.54420138889</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7570,10 +7570,10 @@
         <v>130</v>
       </c>
       <c r="D120" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I120" s="3">
-        <v>45318.44123842593</v>
+        <v>45317.53939814815</v>
       </c>
       <c r="J120" s="3">
-        <v>45318.44123842593</v>
+        <v>45317.53939814815</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7602,25 +7602,25 @@
         <v>131</v>
       </c>
       <c r="D121" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="E121" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>892</v>
+        <v>966</v>
       </c>
       <c r="I121" s="3">
-        <v>45318.96332175926</v>
+        <v>45317.44423611111</v>
       </c>
       <c r="J121" s="3">
-        <v>45318.96332175926</v>
+        <v>45317.44423611111</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7634,10 +7634,10 @@
         <v>132</v>
       </c>
       <c r="D122" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E122" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -7646,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I122" s="3">
-        <v>45318.47263888889</v>
+        <v>45317.32791666667</v>
       </c>
       <c r="J122" s="3">
-        <v>45318.47263888889</v>
+        <v>45317.32791666667</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7666,10 +7666,10 @@
         <v>133</v>
       </c>
       <c r="D123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E123" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7678,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I123" s="3">
-        <v>45318.49947916667</v>
+        <v>45317.32594907407</v>
       </c>
       <c r="J123" s="3">
-        <v>45318.49947916667</v>
+        <v>45317.32626157408</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7698,10 +7698,10 @@
         <v>134</v>
       </c>
       <c r="D124" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E124" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -7710,13 +7710,13 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I124" s="3">
-        <v>45318.81106481481</v>
+        <v>45317.30068287037</v>
       </c>
       <c r="J124" s="3">
-        <v>45318.81106481481</v>
+        <v>45317.30068287037</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7730,10 +7730,10 @@
         <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E125" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7742,13 +7742,13 @@
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I125" s="3">
-        <v>45318.77913194444</v>
+        <v>45317.30003472222</v>
       </c>
       <c r="J125" s="3">
-        <v>45318.77913194444</v>
+        <v>45317.30003472222</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7762,10 +7762,10 @@
         <v>136</v>
       </c>
       <c r="D126" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E126" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="I126" s="3">
-        <v>45318.71547453704</v>
+        <v>45317.24327546296</v>
       </c>
       <c r="J126" s="3">
-        <v>45318.71547453704</v>
+        <v>45317.24327546296</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7794,25 +7794,25 @@
         <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E127" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I127" s="3">
-        <v>45318.69630787037</v>
+        <v>45317.23116898148</v>
       </c>
       <c r="J127" s="3">
-        <v>45318.69630787037</v>
+        <v>45317.23116898148</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7826,10 +7826,10 @@
         <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E128" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7838,13 +7838,13 @@
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I128" s="3">
-        <v>45318.68068287037</v>
+        <v>45317.19009259259</v>
       </c>
       <c r="J128" s="3">
-        <v>45318.68068287037</v>
+        <v>45317.19009259259</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7858,25 +7858,25 @@
         <v>139</v>
       </c>
       <c r="D129" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E129" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I129" s="3">
-        <v>45318.67799768518</v>
+        <v>45317.17840277778</v>
       </c>
       <c r="J129" s="3">
-        <v>45318.67799768518</v>
+        <v>45317.17840277778</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7890,10 +7890,10 @@
         <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E130" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -7902,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I130" s="3">
-        <v>45318.67212962963</v>
+        <v>45317.14445601852</v>
       </c>
       <c r="J130" s="3">
-        <v>45318.67212962963</v>
+        <v>45317.14445601852</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7922,10 +7922,10 @@
         <v>141</v>
       </c>
       <c r="D131" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E131" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I131" s="3">
-        <v>45318.66025462963</v>
+        <v>45318.19993055556</v>
       </c>
       <c r="J131" s="3">
-        <v>45318.66025462963</v>
+        <v>45318.19993055556</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7954,10 +7954,10 @@
         <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E132" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -7966,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I132" s="3">
-        <v>45318.65210648148</v>
+        <v>45318.21420138889</v>
       </c>
       <c r="J132" s="3">
-        <v>45318.65210648148</v>
+        <v>45318.21420138889</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7986,10 +7986,10 @@
         <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -7998,13 +7998,13 @@
         <v>0</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I133" s="3">
-        <v>45318.65135416666</v>
+        <v>45319.2933912037</v>
       </c>
       <c r="J133" s="3">
-        <v>45318.65135416666</v>
+        <v>45319.2933912037</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -8018,10 +8018,10 @@
         <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E134" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -8030,13 +8030,13 @@
         <v>0</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I134" s="3">
-        <v>45318.62717592593</v>
+        <v>45318.68068287037</v>
       </c>
       <c r="J134" s="3">
-        <v>45318.62717592593</v>
+        <v>45318.68068287037</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -8050,10 +8050,10 @@
         <v>145</v>
       </c>
       <c r="D135" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="E135" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -8062,13 +8062,13 @@
         <v>1</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>922</v>
+        <v>979</v>
       </c>
       <c r="I135" s="3">
-        <v>45318.51125</v>
+        <v>45319.24681712963</v>
       </c>
       <c r="J135" s="3">
-        <v>45318.51125</v>
+        <v>45319.24681712963</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8085,22 +8085,22 @@
         <v>431</v>
       </c>
       <c r="E136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>980</v>
       </c>
       <c r="I136" s="3">
-        <v>45318.60400462963</v>
+        <v>45319.24497685185</v>
       </c>
       <c r="J136" s="3">
-        <v>45318.60400462963</v>
+        <v>45319.24497685185</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -8117,7 +8117,7 @@
         <v>432</v>
       </c>
       <c r="E137" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -8129,10 +8129,10 @@
         <v>981</v>
       </c>
       <c r="I137" s="3">
-        <v>45318.54065972222</v>
+        <v>45319.22399305556</v>
       </c>
       <c r="J137" s="3">
-        <v>45318.54065972222</v>
+        <v>45319.22399305556</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -8149,22 +8149,22 @@
         <v>433</v>
       </c>
       <c r="E138" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>982</v>
       </c>
       <c r="I138" s="3">
-        <v>45319.10505787037</v>
+        <v>45319.1815162037</v>
       </c>
       <c r="J138" s="3">
-        <v>45319.10505787037</v>
+        <v>45319.1815162037</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -8178,10 +8178,10 @@
         <v>149</v>
       </c>
       <c r="D139" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="E139" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -8190,13 +8190,13 @@
         <v>0</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>983</v>
+        <v>871</v>
       </c>
       <c r="I139" s="3">
-        <v>45319.17743055556</v>
+        <v>45320.58707175926</v>
       </c>
       <c r="J139" s="3">
-        <v>45319.17743055556</v>
+        <v>45320.58707175926</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -8210,10 +8210,10 @@
         <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="E140" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -8222,13 +8222,13 @@
         <v>0</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>922</v>
+        <v>983</v>
       </c>
       <c r="I140" s="3">
-        <v>45318.52138888889</v>
+        <v>45319.17743055556</v>
       </c>
       <c r="J140" s="3">
-        <v>45318.52138888889</v>
+        <v>45319.17743055556</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -8242,10 +8242,10 @@
         <v>151</v>
       </c>
       <c r="D141" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="E141" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -8254,13 +8254,13 @@
         <v>0</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="I141" s="3">
-        <v>45320.58707175926</v>
+        <v>45319.10505787037</v>
       </c>
       <c r="J141" s="3">
-        <v>45320.58707175926</v>
+        <v>45319.10505787037</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -8274,25 +8274,25 @@
         <v>152</v>
       </c>
       <c r="D142" t="s">
-        <v>318</v>
+        <v>436</v>
       </c>
       <c r="E142" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>867</v>
+        <v>985</v>
       </c>
       <c r="I142" s="3">
-        <v>45319.74916666667</v>
+        <v>45319.10239583333</v>
       </c>
       <c r="J142" s="3">
-        <v>45319.74916666667</v>
+        <v>45319.10239583333</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -8306,7 +8306,7 @@
         <v>153</v>
       </c>
       <c r="D143" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E143" t="s">
         <v>706</v>
@@ -8318,13 +8318,13 @@
         <v>0</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="I143" s="3">
-        <v>45317.88155092593</v>
+        <v>45319.00103009259</v>
       </c>
       <c r="J143" s="3">
-        <v>45317.88155092593</v>
+        <v>45319.00103009259</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -8338,7 +8338,7 @@
         <v>154</v>
       </c>
       <c r="D144" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="E144" t="s">
         <v>707</v>
@@ -8350,13 +8350,13 @@
         <v>0</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>985</v>
+        <v>891</v>
       </c>
       <c r="I144" s="3">
-        <v>45319.7193287037</v>
+        <v>45318.96332175926</v>
       </c>
       <c r="J144" s="3">
-        <v>45319.7193287037</v>
+        <v>45318.96332175926</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -8370,7 +8370,7 @@
         <v>155</v>
       </c>
       <c r="D145" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E145" t="s">
         <v>708</v>
@@ -8382,13 +8382,13 @@
         <v>0</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="I145" s="3">
-        <v>45319.62914351852</v>
+        <v>45318.81106481481</v>
       </c>
       <c r="J145" s="3">
-        <v>45319.62914351852</v>
+        <v>45318.81106481481</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -8402,7 +8402,7 @@
         <v>156</v>
       </c>
       <c r="D146" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E146" t="s">
         <v>709</v>
@@ -8414,13 +8414,13 @@
         <v>0</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="I146" s="3">
-        <v>45319.61770833333</v>
+        <v>45318.77913194444</v>
       </c>
       <c r="J146" s="3">
-        <v>45319.61770833333</v>
+        <v>45318.77913194444</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -8434,7 +8434,7 @@
         <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E147" t="s">
         <v>710</v>
@@ -8446,13 +8446,13 @@
         <v>1</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="I147" s="3">
-        <v>45319.57282407407</v>
+        <v>45318.71547453704</v>
       </c>
       <c r="J147" s="3">
-        <v>45319.57282407407</v>
+        <v>45318.71547453704</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8466,7 +8466,7 @@
         <v>158</v>
       </c>
       <c r="D148" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E148" t="s">
         <v>711</v>
@@ -8475,16 +8475,16 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I148" s="3">
-        <v>45319.54571759259</v>
+        <v>45318.69630787037</v>
       </c>
       <c r="J148" s="3">
-        <v>45319.54571759259</v>
+        <v>45318.69630787037</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -8498,7 +8498,7 @@
         <v>159</v>
       </c>
       <c r="D149" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E149" t="s">
         <v>712</v>
@@ -8510,13 +8510,13 @@
         <v>0</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I149" s="3">
-        <v>45318.01256944444</v>
+        <v>45318.67799768518</v>
       </c>
       <c r="J149" s="3">
-        <v>45318.01256944444</v>
+        <v>45318.67799768518</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8530,7 +8530,7 @@
         <v>160</v>
       </c>
       <c r="D150" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E150" t="s">
         <v>713</v>
@@ -8542,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I150" s="3">
-        <v>45318.11722222222</v>
+        <v>45318.23993055556</v>
       </c>
       <c r="J150" s="3">
-        <v>45318.11722222222</v>
+        <v>45318.23993055556</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8562,7 +8562,7 @@
         <v>161</v>
       </c>
       <c r="D151" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E151" t="s">
         <v>714</v>
@@ -8574,13 +8574,13 @@
         <v>0</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="I151" s="3">
-        <v>45319.45684027778</v>
+        <v>45318.67212962963</v>
       </c>
       <c r="J151" s="3">
-        <v>45319.45684027778</v>
+        <v>45318.67212962963</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8594,7 +8594,7 @@
         <v>162</v>
       </c>
       <c r="D152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E152" t="s">
         <v>715</v>
@@ -8603,16 +8603,16 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I152" s="3">
-        <v>45319.44925925926</v>
+        <v>45318.66025462963</v>
       </c>
       <c r="J152" s="3">
-        <v>45319.44925925926</v>
+        <v>45318.66025462963</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8626,7 +8626,7 @@
         <v>163</v>
       </c>
       <c r="D153" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E153" t="s">
         <v>716</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="I153" s="3">
-        <v>45318.12043981482</v>
+        <v>45318.65210648148</v>
       </c>
       <c r="J153" s="3">
-        <v>45318.12043981482</v>
+        <v>45318.65210648148</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8658,7 +8658,7 @@
         <v>164</v>
       </c>
       <c r="D154" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E154" t="s">
         <v>717</v>
@@ -8670,13 +8670,13 @@
         <v>0</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I154" s="3">
-        <v>45318.12887731481</v>
+        <v>45318.65135416666</v>
       </c>
       <c r="J154" s="3">
-        <v>45318.12887731481</v>
+        <v>45318.65135416666</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -8690,7 +8690,7 @@
         <v>165</v>
       </c>
       <c r="D155" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="E155" t="s">
         <v>718</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>899</v>
+        <v>997</v>
       </c>
       <c r="I155" s="3">
-        <v>45319.29616898148</v>
+        <v>45318.62717592593</v>
       </c>
       <c r="J155" s="3">
-        <v>45319.29616898148</v>
+        <v>45318.62717592593</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8722,7 +8722,7 @@
         <v>166</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E156" t="s">
         <v>719</v>
@@ -8731,16 +8731,16 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="I156" s="3">
-        <v>45318.1466087963</v>
+        <v>45318.60400462963</v>
       </c>
       <c r="J156" s="3">
-        <v>45318.1466087963</v>
+        <v>45318.60400462963</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8754,7 +8754,7 @@
         <v>167</v>
       </c>
       <c r="D157" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E157" t="s">
         <v>720</v>
@@ -8766,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="I157" s="3">
-        <v>45319.2933912037</v>
+        <v>45318.54065972222</v>
       </c>
       <c r="J157" s="3">
-        <v>45319.2933912037</v>
+        <v>45318.54065972222</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8786,7 +8786,7 @@
         <v>168</v>
       </c>
       <c r="D158" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E158" t="s">
         <v>721</v>
@@ -8795,16 +8795,16 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="I158" s="3">
-        <v>45319.24681712963</v>
+        <v>45318.52138888889</v>
       </c>
       <c r="J158" s="3">
-        <v>45319.24681712963</v>
+        <v>45318.52138888889</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8818,7 +8818,7 @@
         <v>169</v>
       </c>
       <c r="D159" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E159" t="s">
         <v>722</v>
@@ -8830,13 +8830,13 @@
         <v>0</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="I159" s="3">
-        <v>45319.24497685185</v>
+        <v>45318.52019675926</v>
       </c>
       <c r="J159" s="3">
-        <v>45319.24497685185</v>
+        <v>45318.52019675926</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>1000</v>
       </c>
       <c r="I160" s="3">
-        <v>45318.14758101852</v>
+        <v>45318.51125</v>
       </c>
       <c r="J160" s="3">
-        <v>45318.14758101852</v>
+        <v>45318.51125</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8897,10 +8897,10 @@
         <v>1001</v>
       </c>
       <c r="I161" s="3">
-        <v>45319.22399305556</v>
+        <v>45318.49947916667</v>
       </c>
       <c r="J161" s="3">
-        <v>45319.22399305556</v>
+        <v>45318.49947916667</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8914,7 +8914,7 @@
         <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="E162" t="s">
         <v>725</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>879</v>
+        <v>989</v>
       </c>
       <c r="I162" s="3">
-        <v>45318.19790509259</v>
+        <v>45318.47263888889</v>
       </c>
       <c r="J162" s="3">
-        <v>45318.19790509259</v>
+        <v>45318.47263888889</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8961,10 +8961,10 @@
         <v>1002</v>
       </c>
       <c r="I163" s="3">
-        <v>45318.19993055556</v>
+        <v>45318.44123842593</v>
       </c>
       <c r="J163" s="3">
-        <v>45318.19993055556</v>
+        <v>45318.44123842593</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8987,16 +8987,16 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="I164" s="3">
-        <v>45319.1815162037</v>
+        <v>45318.29119212963</v>
       </c>
       <c r="J164" s="3">
-        <v>45319.1815162037</v>
+        <v>45318.29119212963</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -9057,10 +9057,10 @@
         <v>1004</v>
       </c>
       <c r="I166" s="3">
-        <v>45382.68230324074</v>
+        <v>45320.68884259259</v>
       </c>
       <c r="J166" s="3">
-        <v>45382.68230324074</v>
+        <v>45320.68884259259</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -10741,7 +10741,7 @@
         <v>502</v>
       </c>
       <c r="E219" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -11666,7 +11666,7 @@
         <v>258</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E248" t="s">
         <v>808</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I248" s="3">
         <v>45321.10758101852</v>
@@ -12018,7 +12018,7 @@
         <v>269</v>
       </c>
       <c r="D259" t="s">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="E259" t="s">
         <v>819</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="I259" s="3">
         <v>45320.68972222223</v>
@@ -12050,7 +12050,7 @@
         <v>270</v>
       </c>
       <c r="D260" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E260" t="s">
         <v>820</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="I260" s="3">
         <v>45370.07181712963</v>
@@ -12082,7 +12082,7 @@
         <v>271</v>
       </c>
       <c r="D261" t="s">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="E261" t="s">
         <v>821</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="I261" s="3">
         <v>45320.68494212963</v>
@@ -12114,7 +12114,7 @@
         <v>272</v>
       </c>
       <c r="D262" t="s">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="E262" t="s">
         <v>822</v>
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="I262" s="3">
         <v>45320.68394675926</v>
@@ -12146,7 +12146,7 @@
         <v>273</v>
       </c>
       <c r="D263" t="s">
-        <v>537</v>
+        <v>455</v>
       </c>
       <c r="E263" t="s">
         <v>823</v>
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="I263" s="3">
         <v>45320.6829050926</v>
@@ -12178,7 +12178,7 @@
         <v>274</v>
       </c>
       <c r="D264" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E264" t="s">
         <v>824</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="I264" s="3">
         <v>45320.64254629629</v>
@@ -12210,7 +12210,7 @@
         <v>275</v>
       </c>
       <c r="D265" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E265" t="s">
         <v>825</v>
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I265" s="3">
         <v>45320.61923611111</v>
@@ -12242,7 +12242,7 @@
         <v>276</v>
       </c>
       <c r="D266" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="E266" t="s">
         <v>826</v>
@@ -12254,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>890</v>
+        <v>917</v>
       </c>
       <c r="I266" s="3">
         <v>45320.60324074074</v>
@@ -12306,7 +12306,7 @@
         <v>278</v>
       </c>
       <c r="D268" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E268" t="s">
         <v>828</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I268" s="3">
         <v>45321.68258101852</v>
@@ -12338,7 +12338,7 @@
         <v>279</v>
       </c>
       <c r="D269" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E269" t="s">
         <v>829</v>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I269" s="3">
         <v>45323.83030092593</v>
@@ -12370,7 +12370,7 @@
         <v>280</v>
       </c>
       <c r="D270" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E270" t="s">
         <v>830</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I270" s="3">
         <v>45322.67471064815</v>
@@ -12402,7 +12402,7 @@
         <v>281</v>
       </c>
       <c r="D271" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E271" t="s">
         <v>831</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I271" s="3">
         <v>45323.77930555555</v>
@@ -12434,7 +12434,7 @@
         <v>282</v>
       </c>
       <c r="D272" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E272" t="s">
         <v>832</v>
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="I272" s="3">
         <v>45323.77061342593</v>
@@ -12466,7 +12466,7 @@
         <v>283</v>
       </c>
       <c r="D273" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E273" t="s">
         <v>833</v>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="I273" s="3">
         <v>45323.65188657407</v>
@@ -12498,7 +12498,7 @@
         <v>284</v>
       </c>
       <c r="D274" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E274" t="s">
         <v>834</v>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I274" s="3">
         <v>45323.58189814815</v>
@@ -12530,7 +12530,7 @@
         <v>285</v>
       </c>
       <c r="D275" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E275" t="s">
         <v>835</v>
@@ -12542,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I275" s="3">
         <v>45323.50454861111</v>
@@ -12562,7 +12562,7 @@
         <v>286</v>
       </c>
       <c r="D276" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E276" t="s">
         <v>836</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I276" s="3">
         <v>45323.44092592593</v>
@@ -12594,7 +12594,7 @@
         <v>287</v>
       </c>
       <c r="D277" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E277" t="s">
         <v>837</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I277" s="3">
         <v>45323.36096064815</v>
@@ -12626,7 +12626,7 @@
         <v>288</v>
       </c>
       <c r="D278" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E278" t="s">
         <v>838</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I278" s="3">
         <v>45323.35033564815</v>
@@ -12658,7 +12658,7 @@
         <v>289</v>
       </c>
       <c r="D279" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E279" t="s">
         <v>839</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I279" s="3">
         <v>45323.33967592593</v>
@@ -12690,7 +12690,7 @@
         <v>290</v>
       </c>
       <c r="D280" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E280" t="s">
         <v>840</v>
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I280" s="3">
         <v>45323.10732638889</v>
@@ -12722,7 +12722,7 @@
         <v>291</v>
       </c>
       <c r="D281" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E281" t="s">
         <v>841</v>
@@ -12734,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I281" s="3">
         <v>45322.96347222223</v>
@@ -12754,7 +12754,7 @@
         <v>292</v>
       </c>
       <c r="D282" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E282" t="s">
         <v>842</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I282" s="3">
         <v>45322.89299768519</v>
@@ -12786,7 +12786,7 @@
         <v>293</v>
       </c>
       <c r="D283" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E283" t="s">
         <v>843</v>
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I283" s="3">
         <v>45322.67924768518</v>
@@ -12818,7 +12818,7 @@
         <v>294</v>
       </c>
       <c r="D284" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E284" t="s">
         <v>830</v>
@@ -12830,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I284" s="3">
         <v>45322.6753125</v>
@@ -12850,7 +12850,7 @@
         <v>295</v>
       </c>
       <c r="D285" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E285" t="s">
         <v>844</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I285" s="3">
         <v>45322.67434027778</v>
@@ -12882,7 +12882,7 @@
         <v>296</v>
       </c>
       <c r="D286" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E286" t="s">
         <v>845</v>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I286" s="3">
         <v>45321.68268518519</v>
@@ -12914,7 +12914,7 @@
         <v>297</v>
       </c>
       <c r="D287" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E287" t="s">
         <v>846</v>
@@ -12926,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I287" s="3">
         <v>45322.56965277778</v>
@@ -12946,7 +12946,7 @@
         <v>298</v>
       </c>
       <c r="D288" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E288" t="s">
         <v>847</v>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I288" s="3">
         <v>45322.38637731481</v>
@@ -12978,7 +12978,7 @@
         <v>299</v>
       </c>
       <c r="D289" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E289" t="s">
         <v>848</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I289" s="3">
         <v>45322.37207175926</v>
@@ -13010,7 +13010,7 @@
         <v>300</v>
       </c>
       <c r="D290" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E290" t="s">
         <v>849</v>
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I290" s="3">
         <v>45322.35435185185</v>
@@ -13042,7 +13042,7 @@
         <v>301</v>
       </c>
       <c r="D291" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E291" t="s">
         <v>850</v>
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I291" s="3">
         <v>45322.32959490741</v>
@@ -13074,7 +13074,7 @@
         <v>302</v>
       </c>
       <c r="D292" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E292" t="s">
         <v>851</v>
@@ -13086,7 +13086,7 @@
         <v>1</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I292" s="3">
         <v>45322.28216435185</v>
@@ -13106,7 +13106,7 @@
         <v>303</v>
       </c>
       <c r="D293" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E293" t="s">
         <v>852</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I293" s="3">
         <v>45322.27399305555</v>
@@ -13138,7 +13138,7 @@
         <v>304</v>
       </c>
       <c r="D294" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E294" t="s">
         <v>853</v>
@@ -13150,7 +13150,7 @@
         <v>1</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I294" s="3">
         <v>45322.26306712963</v>
@@ -13170,7 +13170,7 @@
         <v>305</v>
       </c>
       <c r="D295" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E295" t="s">
         <v>854</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="I295" s="3">
         <v>45322.20975694444</v>
@@ -13202,7 +13202,7 @@
         <v>306</v>
       </c>
       <c r="D296" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E296" t="s">
         <v>855</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I296" s="3">
         <v>45322.08584490741</v>
@@ -13234,7 +13234,7 @@
         <v>307</v>
       </c>
       <c r="D297" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E297" t="s">
         <v>856</v>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I297" s="3">
         <v>45322.06380787037</v>
@@ -13266,7 +13266,7 @@
         <v>308</v>
       </c>
       <c r="D298" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E298" t="s">
         <v>857</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I298" s="3">
         <v>45321.8341087963</v>
@@ -13298,7 +13298,7 @@
         <v>309</v>
       </c>
       <c r="D299" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E299" t="s">
         <v>858</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I299" s="3">
         <v>45321.81512731482</v>
@@ -13330,7 +13330,7 @@
         <v>310</v>
       </c>
       <c r="D300" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E300" t="s">
         <v>859</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="I300" s="3">
         <v>45321.72748842592</v>
@@ -13362,7 +13362,7 @@
         <v>311</v>
       </c>
       <c r="D301" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="E301" t="s">
         <v>860</v>
@@ -13374,13 +13374,13 @@
         <v>0</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>1086</v>
+        <v>1118</v>
       </c>
       <c r="I301" s="3">
-        <v>45320.68884259259</v>
+        <v>45317.02587962963</v>
       </c>
       <c r="J301" s="3">
-        <v>45320.68884259259</v>
+        <v>45317.02587962963</v>
       </c>
     </row>
   </sheetData>
